--- a/ELM/ELM_Mereni.xlsx
+++ b/ELM/ELM_Mereni.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ylxzfa\Documents\School\ELM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\ELM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1E5598-2923-4D4D-86B3-CAAC5D017551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F369AF4E-C8E5-4697-94EE-57C967E11513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{0E831311-E828-46E0-A9F7-A0C3C1A0662F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{0E831311-E828-46E0-A9F7-A0C3C1A0662F}"/>
   </bookViews>
   <sheets>
     <sheet name="Pohor1" sheetId="4" r:id="rId1"/>
@@ -705,9 +705,6 @@
     <t>I [mA]</t>
   </si>
   <si>
-    <t>Z [Ω]</t>
-  </si>
-  <si>
     <t>R [Ω]</t>
   </si>
   <si>
@@ -798,6 +795,9 @@
     </r>
   </si>
   <si>
+    <t>Z [kΩ]</t>
+  </si>
+  <si>
     <r>
       <t>X</t>
     </r>
@@ -820,7 +820,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> [Ω]</t>
+      <t xml:space="preserve"> [kΩ]</t>
     </r>
   </si>
   <si>
@@ -846,7 +846,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> [Ω]</t>
+      <t xml:space="preserve"> [kΩ]</t>
     </r>
   </si>
 </sst>
@@ -1313,7 +1313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1381,6 +1381,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1405,12 +1423,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1430,6 +1442,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1459,52 +1477,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2804,6 +2792,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>David graf</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2848,7 +2861,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Z [Ω]</c:v>
+                  <c:v>Z [kΩ]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2989,7 +3002,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>XL [Ω]</c:v>
+                  <c:v>XL [kΩ]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3130,7 +3143,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>XC [Ω]</c:v>
+                  <c:v>XC [kΩ]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3488,6 +3501,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Adam graf</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3532,7 +3570,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Z [Ω]</c:v>
+                  <c:v>Z [kΩ]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3673,7 +3711,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>XL [Ω]</c:v>
+                  <c:v>XL [kΩ]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3814,7 +3852,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>XC [Ω]</c:v>
+                  <c:v>XC [kΩ]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4172,6 +4210,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Jirka</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> graf</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4216,7 +4284,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Z [Ω]</c:v>
+                  <c:v>Z [kΩ]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4357,7 +4425,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>XL [Ω]</c:v>
+                  <c:v>XL [kΩ]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4498,7 +4566,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>XC [Ω]</c:v>
+                  <c:v>XC [kΩ]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4856,6 +4924,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Ondra graf</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4900,7 +4993,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Z [Ω]</c:v>
+                  <c:v>Z [kΩ]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5041,7 +5134,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>XL [Ω]</c:v>
+                  <c:v>XL [kΩ]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5182,7 +5275,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>XC [Ω]</c:v>
+                  <c:v>XC [kΩ]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10141,14 +10234,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>251731</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>2721</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28997</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>156481</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>92528</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>131942</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10176,15 +10269,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>277678</xdr:colOff>
+      <xdr:colOff>284247</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>171773</xdr:rowOff>
+      <xdr:rowOff>86376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>148526</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>21956</xdr:rowOff>
+      <xdr:colOff>155095</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>120490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10214,13 +10307,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>316424</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>29705</xdr:rowOff>
+      <xdr:rowOff>75687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>187272</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>60702</xdr:rowOff>
+      <xdr:rowOff>106684</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10250,13 +10343,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>290593</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>107197</xdr:rowOff>
+      <xdr:rowOff>54645</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>161441</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>138193</xdr:rowOff>
+      <xdr:rowOff>85641</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10279,56 +10372,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>398317</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>17319</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>226546</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>32435</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EDD0749-F769-2F9B-EF8C-A358DB2547D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12555681" y="207819"/>
-          <a:ext cx="3880683" cy="2872616"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10657,82 +10700,82 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-    </row>
-    <row r="3" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
-    </row>
-    <row r="5" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="53"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
       <c r="L5" t="s">
         <v>95</v>
       </c>
@@ -10799,7 +10842,7 @@
         <v>91.8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>8</v>
       </c>
@@ -10824,7 +10867,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="13.9" x14ac:dyDescent="0.25">
       <c r="M9">
         <v>5.9</v>
       </c>
@@ -10837,17 +10880,17 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
@@ -10863,15 +10906,15 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
@@ -10886,7 +10929,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -10922,7 +10965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -10958,7 +11001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -11053,30 +11096,30 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+    </row>
+    <row r="20" spans="1:9" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -11105,7 +11148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -11134,7 +11177,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -11229,34 +11272,34 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -11283,7 +11326,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -11316,7 +11359,7 @@
         <v>18.06415775814131</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -11349,12 +11392,12 @@
         <v>12.773288447205301</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -11381,7 +11424,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -11469,28 +11512,28 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.09765625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="2:7" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
-    </row>
-    <row r="3" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="62"/>
+    </row>
+    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="65"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -11539,7 +11582,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="16" t="s">
         <v>5</v>
       </c>
@@ -11552,24 +11595,24 @@
     </row>
     <row r="11" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50"/>
-    </row>
-    <row r="13" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="59"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="61"/>
-    </row>
-    <row r="14" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="62"/>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="69"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="71"/>
+    </row>
+    <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9"/>
       <c r="C14" s="13" t="s">
         <v>12</v>
@@ -11581,7 +11624,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>14</v>
       </c>
@@ -11594,7 +11637,7 @@
       </c>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>13</v>
       </c>
@@ -11607,7 +11650,7 @@
       </c>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>15</v>
       </c>
@@ -11620,7 +11663,7 @@
       </c>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>16</v>
       </c>
@@ -11635,14 +11678,14 @@
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="57" t="s">
+    <row r="19" spans="2:8" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:8" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="58"/>
-    </row>
-    <row r="21" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="68"/>
+    </row>
+    <row r="21" spans="2:8" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>17</v>
       </c>
@@ -11653,26 +11696,26 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:8" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="50"/>
-    </row>
-    <row r="27" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="59"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="61"/>
-    </row>
-    <row r="28" spans="2:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="62"/>
+    </row>
+    <row r="27" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="71"/>
+    </row>
+    <row r="28" spans="2:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
       <c r="C28" s="13" t="s">
         <v>42</v>
@@ -11686,7 +11729,7 @@
       <c r="F28" s="13"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B29" s="17" t="s">
         <v>40</v>
       </c>
@@ -11703,7 +11746,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
         <v>41</v>
       </c>
@@ -11720,21 +11763,21 @@
       <c r="F30" s="6"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="57" t="s">
+    <row r="31" spans="2:8" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:8" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="F32" s="57" t="s">
+      <c r="C32" s="68"/>
+      <c r="F32" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="58"/>
+      <c r="G32" s="68"/>
       <c r="H32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="12" t="s">
         <v>18</v>
       </c>
@@ -11751,26 +11794,26 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:7" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="50"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="62"/>
     </row>
     <row r="39" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="59"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="61"/>
-    </row>
-    <row r="40" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="69"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="71"/>
+    </row>
+    <row r="40" spans="2:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="9"/>
       <c r="C40" s="13" t="s">
         <v>20</v>
@@ -11784,25 +11827,25 @@
       <c r="F40" s="13"/>
       <c r="G40" s="14"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
         <v>16</v>
       </c>
@@ -11812,18 +11855,18 @@
       <c r="F44" s="6"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="57" t="s">
+    <row r="45" spans="2:7" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="2:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="58"/>
-      <c r="F46" s="62" t="s">
+      <c r="C46" s="68"/>
+      <c r="F46" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="G46" s="63"/>
-    </row>
-    <row r="47" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G46" s="73"/>
+    </row>
+    <row r="47" spans="2:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B47" s="12" t="s">
         <v>18</v>
       </c>
@@ -11833,23 +11876,23 @@
       <c r="D47" t="s">
         <v>29</v>
       </c>
-      <c r="F47" s="55" t="s">
+      <c r="F47" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="G47" s="56"/>
+      <c r="G47" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B38:G39"/>
+    <mergeCell ref="B26:G27"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="B12:G13"/>
     <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B38:G39"/>
-    <mergeCell ref="B26:G27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -11868,73 +11911,73 @@
       <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="2:22" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="66"/>
-      <c r="R2" s="48" t="s">
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="78"/>
+      <c r="R2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="50"/>
-    </row>
-    <row r="3" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="69"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="53"/>
-    </row>
-    <row r="4" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="72"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="62"/>
+    </row>
+    <row r="3" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="81"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="65"/>
+    </row>
+    <row r="4" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="82"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="84"/>
       <c r="R4" s="27" t="s">
         <v>1</v>
       </c>
@@ -11951,7 +11994,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" ht="13.9" x14ac:dyDescent="0.25">
       <c r="R5" s="24" t="s">
         <v>61</v>
       </c>
@@ -11966,7 +12009,7 @@
       </c>
       <c r="V5" s="23"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" ht="13.9" x14ac:dyDescent="0.25">
       <c r="R6" s="10" t="s">
         <v>58</v>
       </c>
@@ -11981,7 +12024,7 @@
       </c>
       <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R7" s="11" t="s">
         <v>55</v>
       </c>
@@ -11997,42 +12040,42 @@
       <c r="V7" s="7"/>
     </row>
     <row r="8" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="50"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="62"/>
     </row>
     <row r="9" spans="2:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="51"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="53"/>
-    </row>
-    <row r="10" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="63"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="65"/>
+    </row>
+    <row r="10" spans="2:22" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="22" t="s">
         <v>50</v>
       </c>
@@ -12082,7 +12125,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:22" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="B11" s="10" t="s">
         <v>48</v>
       </c>
@@ -12132,7 +12175,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="2:22" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:22" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="s">
         <v>46</v>
       </c>
@@ -12179,7 +12222,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="2:22" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:22" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="10" t="s">
         <v>45</v>
       </c>
@@ -12226,7 +12269,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="2:22" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:22" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="20" t="s">
         <v>44</v>
       </c>
@@ -12306,98 +12349,98 @@
       <selection activeCell="B2" sqref="B2:P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="2:16" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="66"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="78"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="69"/>
-    </row>
-    <row r="4" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="72"/>
-    </row>
-    <row r="7" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="81"/>
+    </row>
+    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="82"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="84"/>
+    </row>
+    <row r="7" spans="2:16" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="50"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="62"/>
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
-      <c r="K8" s="48" t="s">
+      <c r="K8" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="50"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="62"/>
     </row>
     <row r="9" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="61"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="53"/>
-    </row>
-    <row r="10" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="63"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="65"/>
+    </row>
+    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="22" t="s">
         <v>74</v>
       </c>
@@ -12500,7 +12543,7 @@
       </c>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="11" t="s">
         <v>63</v>
       </c>
@@ -12530,7 +12573,7 @@
       <c r="N13" s="11"/>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="2:16" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:16" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="C14" s="32"/>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
@@ -12546,24 +12589,24 @@
       <c r="O14" s="31"/>
       <c r="P14" s="31"/>
     </row>
-    <row r="15" spans="2:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:16" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="62"/>
     </row>
     <row r="17" spans="3:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="61"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="71"/>
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
       <c r="K17" s="30"/>
@@ -12631,7 +12674,7 @@
         <v>6.08</v>
       </c>
     </row>
-    <row r="21" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="11" t="s">
         <v>63</v>
       </c>
@@ -12656,7 +12699,7 @@
         <v>270.7236842105263</v>
       </c>
     </row>
-    <row r="23" spans="3:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:11" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C23" s="32"/>
       <c r="D23" s="31"/>
       <c r="E23" s="31"/>
@@ -12665,22 +12708,22 @@
       <c r="H23" s="31"/>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
-    </row>
-    <row r="25" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="59"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+    </row>
+    <row r="25" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="69"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="71"/>
     </row>
     <row r="26" spans="3:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="22" t="s">
@@ -12742,7 +12785,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="29" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="11" t="s">
         <v>63</v>
       </c>
@@ -12767,7 +12810,7 @@
         <v>50750</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:11" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>97</v>
       </c>
@@ -12787,122 +12830,122 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA44BD41-FBD2-4B16-A1A5-7CDDFC74A3B8}">
-  <dimension ref="C1:R90"/>
+  <dimension ref="D1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="44" workbookViewId="0">
-      <selection activeCell="AD19" sqref="AD19"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P73" sqref="P73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="3:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="64" t="s">
+    <row r="1" spans="4:18" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="4:18" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="97"/>
-    </row>
-    <row r="3" spans="3:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="80"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="98"/>
-    </row>
-    <row r="4" spans="3:18" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="82"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="99"/>
-    </row>
-    <row r="5" spans="3:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="3:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D8" s="48" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="86"/>
+    </row>
+    <row r="3" spans="4:18" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="87"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="88"/>
+    </row>
+    <row r="4" spans="4:18" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="89"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="91"/>
+    </row>
+    <row r="5" spans="4:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="4:18" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D8" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="50"/>
-    </row>
-    <row r="9" spans="3:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="51"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="53"/>
-    </row>
-    <row r="10" spans="3:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="77" t="s">
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="62"/>
+    </row>
+    <row r="9" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="65"/>
+    </row>
+    <row r="10" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="47" t="s">
         <v>98</v>
       </c>
       <c r="E10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="G10" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="H10" s="13" t="s">
         <v>111</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>112</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:18" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D11" s="4">
         <v>1</v>
       </c>
-      <c r="E11" s="73">
+      <c r="E11">
         <v>9</v>
       </c>
-      <c r="F11" s="73">
+      <c r="F11">
         <v>22</v>
       </c>
-      <c r="G11" s="73">
+      <c r="G11">
         <v>100</v>
       </c>
-      <c r="H11" s="84">
+      <c r="H11" s="48">
         <f>1/(2*PI()*SQRT(F11*POWER(10, -3)*G11*POWER(10, -9)))</f>
         <v>3393.1947878728502</v>
       </c>
@@ -12910,20 +12953,20 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:18" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="73">
+      <c r="E12">
         <v>12</v>
       </c>
-      <c r="F12" s="73">
+      <c r="F12">
         <v>32</v>
       </c>
-      <c r="G12" s="73">
+      <c r="G12">
         <v>150</v>
       </c>
-      <c r="H12" s="84">
+      <c r="H12" s="48">
         <f>1/(2*PI()*SQRT(F12*POWER(10, -3)*G12*POWER(10, -9)))</f>
         <v>2297.2037309241337</v>
       </c>
@@ -12931,20 +12974,20 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:18" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D13" s="4">
         <v>1</v>
       </c>
-      <c r="E13" s="73">
+      <c r="E13">
         <v>15</v>
       </c>
-      <c r="F13" s="73">
+      <c r="F13">
         <v>42</v>
       </c>
-      <c r="G13" s="73">
+      <c r="G13">
         <v>200</v>
       </c>
-      <c r="H13" s="84">
+      <c r="H13" s="48">
         <f>1/(2*PI()*SQRT(F13*POWER(10, -3)*G13*POWER(10, -9)))</f>
         <v>1736.5227951071415</v>
       </c>
@@ -12952,2146 +12995,2137 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="3:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="75">
+    <row r="14" spans="4:18" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="16">
         <v>1</v>
       </c>
-      <c r="E14" s="76">
+      <c r="E14" s="6">
         <v>18</v>
       </c>
       <c r="F14" s="6">
         <v>52</v>
       </c>
-      <c r="G14" s="76">
+      <c r="G14" s="6">
         <v>250</v>
       </c>
-      <c r="H14" s="85">
+      <c r="H14" s="49">
         <f>1/(2*PI()*SQRT(F14*POWER(10, -3)*G14*POWER(10, -9)))</f>
         <v>1395.8811915110066</v>
       </c>
-      <c r="I14" s="78" t="s">
+      <c r="I14" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C16" s="73"/>
-    </row>
-    <row r="17" spans="3:13" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-    </row>
-    <row r="18" spans="3:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="48" t="str">
+    <row r="16" spans="4:18" ht="13.9" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="4:13" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="4:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="60" t="str">
         <f>I11</f>
         <v>David</v>
       </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="50"/>
-    </row>
-    <row r="19" spans="3:13" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="59"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="61"/>
-    </row>
-    <row r="20" spans="3:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D20" s="87" t="s">
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="62"/>
+    </row>
+    <row r="19" spans="4:13" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="69"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="71"/>
+    </row>
+    <row r="20" spans="4:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D20" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="86" t="s">
+      <c r="E20" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="86" t="s">
+      <c r="F20" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="G20" s="86" t="s">
+      <c r="G20" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="H20" s="86" t="s">
+      <c r="H20" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="J20" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="I20" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="J20" s="86" t="s">
+      <c r="K20" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="K20" s="86" t="s">
-        <v>108</v>
-      </c>
-      <c r="L20" s="86" t="s">
+      <c r="L20" s="50" t="s">
         <v>116</v>
       </c>
       <c r="M20" s="46" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D21" s="17">
         <v>0.3</v>
       </c>
-      <c r="E21" s="91">
-        <f>$H$11 * $D21</f>
+      <c r="E21" s="54">
+        <f t="shared" ref="E21:E33" si="0">$H$11 * $D21</f>
         <v>1017.958436361855</v>
       </c>
-      <c r="F21" s="94">
+      <c r="F21" s="57">
         <v>1.08</v>
       </c>
-      <c r="G21" s="94">
+      <c r="G21" s="57">
         <v>0.73</v>
       </c>
-      <c r="H21" s="95">
+      <c r="H21" s="57">
         <v>0.1</v>
       </c>
-      <c r="I21" s="95">
+      <c r="I21" s="57">
         <v>0.16</v>
       </c>
-      <c r="J21" s="95">
+      <c r="J21" s="57">
         <v>1.19</v>
       </c>
-      <c r="K21" s="94">
+      <c r="K21" s="57">
         <f>$F21/$G21</f>
         <v>1.4794520547945207</v>
       </c>
-      <c r="L21" s="94">
+      <c r="L21" s="57">
         <f>$H21/$G21</f>
         <v>0.13698630136986303</v>
       </c>
-      <c r="M21" s="96">
+      <c r="M21" s="58">
         <f>J21/G21</f>
         <v>1.6301369863013699</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D22" s="10">
         <v>0.5</v>
       </c>
-      <c r="E22" s="92">
-        <f>$H$11 * $D22</f>
+      <c r="E22" s="55">
+        <f t="shared" si="0"/>
         <v>1696.5973939364251</v>
       </c>
-      <c r="F22" s="84">
+      <c r="F22" s="48">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G22" s="84">
+      <c r="G22" s="48">
         <v>1.48</v>
       </c>
-      <c r="H22" s="88">
+      <c r="H22" s="48">
         <v>0.38</v>
       </c>
-      <c r="I22" s="88">
+      <c r="I22" s="48">
         <v>0.21</v>
       </c>
-      <c r="J22" s="88">
+      <c r="J22" s="48">
         <v>1.48</v>
       </c>
-      <c r="K22" s="84">
-        <f t="shared" ref="K22:K33" si="0">$F22/$G22</f>
+      <c r="K22" s="48">
+        <f t="shared" ref="K22:K33" si="1">$F22/$G22</f>
         <v>0.73648648648648651</v>
       </c>
-      <c r="L22" s="84">
-        <f t="shared" ref="L22:L32" si="1">$H22/$G22</f>
+      <c r="L22" s="48">
+        <f t="shared" ref="L22:L32" si="2">$H22/$G22</f>
         <v>0.25675675675675674</v>
       </c>
-      <c r="M22" s="89">
-        <f t="shared" ref="M22:M32" si="2">J22/G22</f>
+      <c r="M22" s="52">
+        <f t="shared" ref="M22:M32" si="3">J22/G22</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D23" s="10">
         <v>0.7</v>
       </c>
-      <c r="E23" s="92">
-        <f>$H$11 * $D23</f>
+      <c r="E23" s="55">
+        <f t="shared" si="0"/>
         <v>2375.2363515109951</v>
       </c>
-      <c r="F23" s="84">
+      <c r="F23" s="48">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G23" s="84">
+      <c r="G23" s="48">
         <v>3.14</v>
       </c>
-      <c r="H23" s="88">
+      <c r="H23" s="48">
         <v>1.22</v>
       </c>
-      <c r="I23" s="88">
+      <c r="I23" s="48">
         <v>0.44</v>
       </c>
-      <c r="J23" s="88">
+      <c r="J23" s="48">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K23" s="84">
-        <f t="shared" si="0"/>
+      <c r="K23" s="48">
+        <f t="shared" si="1"/>
         <v>0.34713375796178347</v>
       </c>
-      <c r="L23" s="84">
-        <f t="shared" si="1"/>
+      <c r="L23" s="48">
+        <f t="shared" si="2"/>
         <v>0.38853503184713373</v>
       </c>
-      <c r="M23" s="89">
-        <f t="shared" si="2"/>
+      <c r="M23" s="52">
+        <f t="shared" si="3"/>
         <v>0.73248407643312097</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D24" s="10">
         <v>0.8</v>
       </c>
-      <c r="E24" s="92">
-        <f>$H$11 * $D24</f>
+      <c r="E24" s="55">
+        <f t="shared" si="0"/>
         <v>2714.5558302982804</v>
       </c>
-      <c r="F24" s="88">
+      <c r="F24" s="48">
         <v>1.02</v>
       </c>
-      <c r="G24" s="88">
+      <c r="G24" s="48">
         <v>5.08</v>
       </c>
-      <c r="H24" s="88">
+      <c r="H24" s="48">
         <v>2.36</v>
       </c>
-      <c r="I24" s="88">
+      <c r="I24" s="48">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J24" s="88">
+      <c r="J24" s="48">
         <v>3.32</v>
       </c>
-      <c r="K24" s="84">
-        <f t="shared" si="0"/>
+      <c r="K24" s="48">
+        <f t="shared" si="1"/>
         <v>0.20078740157480315</v>
       </c>
-      <c r="L24" s="84">
-        <f t="shared" si="1"/>
+      <c r="L24" s="48">
+        <f t="shared" si="2"/>
         <v>0.46456692913385822</v>
       </c>
-      <c r="M24" s="89">
-        <f t="shared" si="2"/>
+      <c r="M24" s="52">
+        <f t="shared" si="3"/>
         <v>0.65354330708661412</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D25" s="10">
         <v>0.9</v>
       </c>
-      <c r="E25" s="92">
-        <f>$H$11 * $D25</f>
+      <c r="E25" s="55">
+        <f t="shared" si="0"/>
         <v>3053.8753090855653</v>
       </c>
-      <c r="F25" s="88">
+      <c r="F25" s="48">
         <v>0.76</v>
       </c>
-      <c r="G25" s="88">
+      <c r="G25" s="48">
         <v>8.06</v>
       </c>
-      <c r="H25" s="88">
+      <c r="H25" s="48">
         <v>4.29</v>
       </c>
-      <c r="I25" s="88">
+      <c r="I25" s="48">
         <v>0.109</v>
       </c>
-      <c r="J25" s="88">
+      <c r="J25" s="48">
         <v>4.8099999999999996</v>
       </c>
-      <c r="K25" s="84">
-        <f t="shared" si="0"/>
+      <c r="K25" s="48">
+        <f t="shared" si="1"/>
         <v>9.4292803970223327E-2</v>
       </c>
-      <c r="L25" s="84">
-        <f t="shared" si="1"/>
+      <c r="L25" s="48">
+        <f t="shared" si="2"/>
         <v>0.532258064516129</v>
       </c>
-      <c r="M25" s="89">
-        <f t="shared" si="2"/>
+      <c r="M25" s="52">
+        <f t="shared" si="3"/>
         <v>0.59677419354838701</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D26" s="10">
         <v>0.95</v>
       </c>
-      <c r="E26" s="92">
-        <f>$H$11 * $D26</f>
+      <c r="E26" s="55">
+        <f t="shared" si="0"/>
         <v>3223.5350484792075</v>
       </c>
-      <c r="F26" s="88">
+      <c r="F26" s="48">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G26" s="88">
+      <c r="G26" s="48">
         <v>9.1300000000000008</v>
       </c>
-      <c r="H26" s="88">
+      <c r="H26" s="48">
         <v>5.23</v>
       </c>
-      <c r="I26" s="88">
+      <c r="I26" s="48">
         <v>0.125</v>
       </c>
-      <c r="J26" s="88">
+      <c r="J26" s="48">
         <v>5.23</v>
       </c>
-      <c r="K26" s="84">
-        <f t="shared" si="0"/>
+      <c r="K26" s="48">
+        <f t="shared" si="1"/>
         <v>6.3526834611171951E-2</v>
       </c>
-      <c r="L26" s="84">
-        <f t="shared" si="1"/>
-        <v>0.57283680175246443</v>
-      </c>
-      <c r="M26" s="89">
+      <c r="L26" s="48">
         <f t="shared" si="2"/>
         <v>0.57283680175246443</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="M26" s="52">
+        <f t="shared" si="3"/>
+        <v>0.57283680175246443</v>
+      </c>
+    </row>
+    <row r="27" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D27" s="10">
         <v>1</v>
       </c>
-      <c r="E27" s="92">
-        <f>$H$11 * $D27</f>
+      <c r="E27" s="55">
+        <f t="shared" si="0"/>
         <v>3393.1947878728502</v>
       </c>
-      <c r="F27" s="88">
+      <c r="F27" s="48">
         <v>0.68</v>
       </c>
-      <c r="G27" s="88">
+      <c r="G27" s="48">
         <v>8.58</v>
       </c>
-      <c r="H27" s="88">
+      <c r="H27" s="48">
         <v>5.23</v>
       </c>
-      <c r="I27" s="88">
+      <c r="I27" s="48">
         <v>0.11899999999999999</v>
       </c>
-      <c r="J27" s="88">
+      <c r="J27" s="48">
         <v>4.72</v>
       </c>
-      <c r="K27" s="84">
-        <f t="shared" si="0"/>
+      <c r="K27" s="48">
+        <f t="shared" si="1"/>
         <v>7.9254079254079263E-2</v>
       </c>
-      <c r="L27" s="84">
-        <f t="shared" si="1"/>
+      <c r="L27" s="48">
+        <f t="shared" si="2"/>
         <v>0.60955710955710962</v>
       </c>
-      <c r="M27" s="89">
-        <f t="shared" si="2"/>
+      <c r="M27" s="52">
+        <f t="shared" si="3"/>
         <v>0.55011655011655003</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D28" s="10">
         <v>1.05</v>
       </c>
-      <c r="E28" s="92">
-        <f>$H$11 * $D28</f>
+      <c r="E28" s="55">
+        <f t="shared" si="0"/>
         <v>3562.8545272664928</v>
       </c>
-      <c r="F28" s="88">
+      <c r="F28" s="48">
         <v>0.87</v>
       </c>
-      <c r="G28" s="88">
+      <c r="G28" s="48">
         <v>7.17</v>
       </c>
-      <c r="H28" s="88">
+      <c r="H28" s="48">
         <v>4.6500000000000004</v>
       </c>
-      <c r="I28" s="88">
+      <c r="I28" s="48">
         <v>0.10299999999999999</v>
       </c>
-      <c r="J28" s="88">
+      <c r="J28" s="48">
         <v>3.8</v>
       </c>
-      <c r="K28" s="84">
-        <f t="shared" si="0"/>
+      <c r="K28" s="48">
+        <f t="shared" si="1"/>
         <v>0.12133891213389121</v>
       </c>
-      <c r="L28" s="84">
-        <f t="shared" si="1"/>
+      <c r="L28" s="48">
+        <f t="shared" si="2"/>
         <v>0.64853556485355657</v>
       </c>
-      <c r="M28" s="89">
-        <f t="shared" si="2"/>
+      <c r="M28" s="52">
+        <f t="shared" si="3"/>
         <v>0.52998605299860524</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D29" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E29" s="92">
-        <f>$H$11 * $D29</f>
+      <c r="E29" s="55">
+        <f t="shared" si="0"/>
         <v>3732.5142666601355</v>
       </c>
-      <c r="F29" s="88">
+      <c r="F29" s="48">
         <v>1.01</v>
       </c>
-      <c r="G29" s="88">
+      <c r="G29" s="48">
         <v>5.87</v>
       </c>
-      <c r="H29" s="88">
+      <c r="H29" s="48">
         <v>4.04</v>
       </c>
-      <c r="I29" s="88">
+      <c r="I29" s="48">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="J29" s="88">
+      <c r="J29" s="48">
         <v>3</v>
       </c>
-      <c r="K29" s="84">
-        <f t="shared" si="0"/>
+      <c r="K29" s="48">
+        <f t="shared" si="1"/>
         <v>0.17206132879045996</v>
       </c>
-      <c r="L29" s="84">
-        <f t="shared" si="1"/>
+      <c r="L29" s="48">
+        <f t="shared" si="2"/>
         <v>0.68824531516183984</v>
       </c>
-      <c r="M29" s="89">
-        <f t="shared" si="2"/>
+      <c r="M29" s="52">
+        <f t="shared" si="3"/>
         <v>0.51107325383304936</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D30" s="10">
         <v>1.2</v>
       </c>
-      <c r="E30" s="92">
-        <f>$H$11 * $D30</f>
+      <c r="E30" s="55">
+        <f t="shared" si="0"/>
         <v>4071.8337454474199</v>
       </c>
-      <c r="F30" s="88">
+      <c r="F30" s="48">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G30" s="88">
+      <c r="G30" s="48">
         <v>4.25</v>
       </c>
-      <c r="H30" s="88">
+      <c r="H30" s="48">
         <v>3.25</v>
       </c>
-      <c r="I30" s="88">
+      <c r="I30" s="48">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J30" s="88">
+      <c r="J30" s="48">
         <v>2.04</v>
       </c>
-      <c r="K30" s="84">
-        <f t="shared" si="0"/>
+      <c r="K30" s="48">
+        <f t="shared" si="1"/>
         <v>0.27058823529411763</v>
       </c>
-      <c r="L30" s="84">
-        <f t="shared" si="1"/>
+      <c r="L30" s="48">
+        <f t="shared" si="2"/>
         <v>0.76470588235294112</v>
       </c>
-      <c r="M30" s="89">
-        <f t="shared" si="2"/>
+      <c r="M30" s="52">
+        <f t="shared" si="3"/>
         <v>0.48</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D31" s="10">
         <v>1.3</v>
       </c>
-      <c r="E31" s="92">
-        <f>$H$11 * $D31</f>
+      <c r="E31" s="55">
+        <f t="shared" si="0"/>
         <v>4411.1532242347057</v>
       </c>
-      <c r="F31" s="88">
+      <c r="F31" s="48">
         <v>1.23</v>
       </c>
-      <c r="G31" s="88">
+      <c r="G31" s="48">
         <v>3.3</v>
       </c>
-      <c r="H31" s="88">
+      <c r="H31" s="48">
         <v>2.8</v>
       </c>
-      <c r="I31" s="88">
+      <c r="I31" s="48">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="J31" s="88">
+      <c r="J31" s="48">
         <v>1.49</v>
       </c>
-      <c r="K31" s="84">
-        <f t="shared" si="0"/>
+      <c r="K31" s="48">
+        <f t="shared" si="1"/>
         <v>0.37272727272727274</v>
       </c>
-      <c r="L31" s="84">
-        <f t="shared" si="1"/>
+      <c r="L31" s="48">
+        <f t="shared" si="2"/>
         <v>0.84848484848484851</v>
       </c>
-      <c r="M31" s="89">
-        <f t="shared" si="2"/>
+      <c r="M31" s="52">
+        <f t="shared" si="3"/>
         <v>0.45151515151515154</v>
       </c>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D32" s="10">
         <v>1.5</v>
       </c>
-      <c r="E32" s="92">
-        <f>$H$11 * $D32</f>
+      <c r="E32" s="55">
+        <f t="shared" si="0"/>
         <v>5089.7921818092755</v>
       </c>
-      <c r="F32" s="88">
+      <c r="F32" s="48">
         <v>1.33</v>
       </c>
-      <c r="G32" s="88">
+      <c r="G32" s="48">
         <v>2.2599999999999998</v>
       </c>
-      <c r="H32" s="88">
+      <c r="H32" s="48">
         <v>2.34</v>
       </c>
-      <c r="I32" s="88">
+      <c r="I32" s="48">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="J32" s="88">
+      <c r="J32" s="48">
         <v>0.92</v>
       </c>
-      <c r="K32" s="84">
-        <f t="shared" si="0"/>
+      <c r="K32" s="48">
+        <f t="shared" si="1"/>
         <v>0.58849557522123908</v>
       </c>
-      <c r="L32" s="84">
-        <f t="shared" si="1"/>
+      <c r="L32" s="48">
+        <f t="shared" si="2"/>
         <v>1.0353982300884956</v>
       </c>
-      <c r="M32" s="89">
-        <f t="shared" si="2"/>
+      <c r="M32" s="52">
+        <f t="shared" si="3"/>
         <v>0.40707964601769919</v>
       </c>
     </row>
-    <row r="33" spans="4:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:13" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D33" s="11">
         <v>1.7</v>
       </c>
-      <c r="E33" s="93">
-        <f>$H$11 * $D33</f>
+      <c r="E33" s="56">
+        <f t="shared" si="0"/>
         <v>5768.4311393838452</v>
       </c>
-      <c r="F33" s="85">
+      <c r="F33" s="49">
         <v>1.43</v>
       </c>
-      <c r="G33" s="85">
+      <c r="G33" s="49">
         <v>1.69</v>
       </c>
-      <c r="H33" s="85">
+      <c r="H33" s="49">
         <v>2.14</v>
       </c>
-      <c r="I33" s="85">
+      <c r="I33" s="49">
         <v>0.45</v>
       </c>
-      <c r="J33" s="85">
+      <c r="J33" s="49">
         <v>0.62</v>
       </c>
-      <c r="K33" s="85">
-        <f t="shared" si="0"/>
+      <c r="K33" s="49">
+        <f t="shared" si="1"/>
         <v>0.84615384615384615</v>
       </c>
-      <c r="L33" s="85">
+      <c r="L33" s="49">
         <f>$H33/$G33</f>
         <v>1.2662721893491125</v>
       </c>
-      <c r="M33" s="90">
+      <c r="M33" s="53">
         <f>J33/G33</f>
         <v>0.36686390532544377</v>
       </c>
     </row>
-    <row r="36" spans="4:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="4:13" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D37" s="48" t="str">
+      <c r="D37" s="60" t="str">
         <f>I12</f>
         <v>Adam</v>
       </c>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="50"/>
-    </row>
-    <row r="38" spans="4:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="59"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="61"/>
-    </row>
-    <row r="39" spans="4:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D39" s="87" t="s">
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="62"/>
+    </row>
+    <row r="38" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="69"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="71"/>
+    </row>
+    <row r="39" spans="4:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D39" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="86" t="s">
+      <c r="E39" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="86" t="s">
+      <c r="F39" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="G39" s="86" t="s">
+      <c r="G39" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="H39" s="86" t="s">
+      <c r="H39" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="I39" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="J39" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="I39" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="J39" s="86" t="s">
+      <c r="K39" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="K39" s="86" t="s">
-        <v>108</v>
-      </c>
-      <c r="L39" s="86" t="s">
+      <c r="L39" s="50" t="s">
         <v>116</v>
       </c>
       <c r="M39" s="46" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D40" s="17">
         <v>0.3</v>
       </c>
-      <c r="E40" s="91">
-        <f>$H$12*$D40</f>
+      <c r="E40" s="54">
+        <f t="shared" ref="E40:E52" si="4">$H$12*$D40</f>
         <v>689.16111927724012</v>
       </c>
-      <c r="F40" s="94">
+      <c r="F40" s="57">
         <v>1.07</v>
       </c>
-      <c r="G40" s="94">
+      <c r="G40" s="57">
         <v>0.75</v>
       </c>
-      <c r="H40" s="95">
+      <c r="H40" s="57">
         <v>0.11</v>
       </c>
-      <c r="I40" s="95">
+      <c r="I40" s="57">
         <v>0.02</v>
       </c>
-      <c r="J40" s="95">
+      <c r="J40" s="57">
         <v>1.18</v>
       </c>
-      <c r="K40" s="94">
+      <c r="K40" s="57">
         <f>$F40/$G40</f>
         <v>1.4266666666666667</v>
       </c>
-      <c r="L40" s="94">
+      <c r="L40" s="57">
         <f>$H40/$G40</f>
         <v>0.14666666666666667</v>
       </c>
-      <c r="M40" s="96">
+      <c r="M40" s="58">
         <f>$J40/$G40</f>
         <v>1.5733333333333333</v>
       </c>
     </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D41" s="10">
         <v>0.5</v>
       </c>
-      <c r="E41" s="92">
-        <f>$H$12*$D41</f>
+      <c r="E41" s="55">
+        <f t="shared" si="4"/>
         <v>1148.6018654620668</v>
       </c>
-      <c r="F41" s="84">
+      <c r="F41" s="48">
         <v>1.07</v>
       </c>
-      <c r="G41" s="84">
+      <c r="G41" s="48">
         <v>1.49</v>
       </c>
-      <c r="H41" s="88">
+      <c r="H41" s="48">
         <v>0.37</v>
       </c>
-      <c r="I41" s="88">
+      <c r="I41" s="48">
         <v>1.9E-2</v>
       </c>
-      <c r="J41" s="88">
+      <c r="J41" s="48">
         <v>1.44</v>
       </c>
-      <c r="K41" s="84">
-        <f t="shared" ref="K41:K52" si="3">$F41/$G41</f>
+      <c r="K41" s="48">
+        <f t="shared" ref="K41:K52" si="5">$F41/$G41</f>
         <v>0.71812080536912759</v>
       </c>
-      <c r="L41" s="84">
-        <f t="shared" ref="L41:L52" si="4">$H41/$G41</f>
+      <c r="L41" s="48">
+        <f t="shared" ref="L41:L52" si="6">$H41/$G41</f>
         <v>0.24832214765100671</v>
       </c>
-      <c r="M41" s="89">
-        <f t="shared" ref="M41:M52" si="5">$J41/$G41</f>
+      <c r="M41" s="52">
+        <f t="shared" ref="M41:M52" si="7">$J41/$G41</f>
         <v>0.96644295302013417</v>
       </c>
     </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D42" s="10">
         <v>0.7</v>
       </c>
-      <c r="E42" s="92">
-        <f>$H$12*$D42</f>
+      <c r="E42" s="55">
+        <f t="shared" si="4"/>
         <v>1608.0426116468934</v>
       </c>
-      <c r="F42" s="84">
+      <c r="F42" s="48">
         <v>1.05</v>
       </c>
-      <c r="G42" s="84">
+      <c r="G42" s="48">
         <v>2.93</v>
       </c>
-      <c r="H42" s="88">
+      <c r="H42" s="48">
         <v>1.04</v>
       </c>
-      <c r="I42" s="88">
+      <c r="I42" s="48">
         <v>1.6E-2</v>
       </c>
-      <c r="J42" s="88">
+      <c r="J42" s="48">
         <v>2.06</v>
       </c>
-      <c r="K42" s="84">
-        <f t="shared" si="3"/>
+      <c r="K42" s="48">
+        <f t="shared" si="5"/>
         <v>0.35836177474402731</v>
       </c>
-      <c r="L42" s="84">
-        <f t="shared" si="4"/>
+      <c r="L42" s="48">
+        <f t="shared" si="6"/>
         <v>0.35494880546075086</v>
       </c>
-      <c r="M42" s="89">
-        <f t="shared" si="5"/>
+      <c r="M42" s="52">
+        <f t="shared" si="7"/>
         <v>0.70307167235494883</v>
       </c>
     </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D43" s="10">
         <v>0.8</v>
       </c>
-      <c r="E43" s="92">
-        <f>$H$12*$D43</f>
+      <c r="E43" s="55">
+        <f t="shared" si="4"/>
         <v>1837.7629847393071</v>
       </c>
-      <c r="F43" s="88">
+      <c r="F43" s="48">
         <v>1</v>
       </c>
-      <c r="G43" s="88">
+      <c r="G43" s="48">
         <v>4.1500000000000004</v>
       </c>
-      <c r="H43" s="88">
+      <c r="H43" s="48">
         <v>1.68</v>
       </c>
-      <c r="I43" s="88">
+      <c r="I43" s="48">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="J43" s="88">
+      <c r="J43" s="48">
         <v>2.62</v>
       </c>
-      <c r="K43" s="84">
-        <f t="shared" si="3"/>
+      <c r="K43" s="48">
+        <f t="shared" si="5"/>
         <v>0.24096385542168672</v>
       </c>
-      <c r="L43" s="84">
-        <f t="shared" si="4"/>
+      <c r="L43" s="48">
+        <f t="shared" si="6"/>
         <v>0.40481927710843368</v>
       </c>
-      <c r="M43" s="89">
-        <f t="shared" si="5"/>
+      <c r="M43" s="52">
+        <f t="shared" si="7"/>
         <v>0.63132530120481922</v>
       </c>
     </row>
-    <row r="44" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D44" s="10">
         <v>0.9</v>
       </c>
-      <c r="E44" s="92">
-        <f>$H$12*$D44</f>
+      <c r="E44" s="55">
+        <f t="shared" si="4"/>
         <v>2067.4833578317202</v>
       </c>
-      <c r="F44" s="88">
+      <c r="F44" s="48">
         <v>0.79</v>
       </c>
-      <c r="G44" s="88">
+      <c r="G44" s="48">
         <v>6.75</v>
       </c>
-      <c r="H44" s="88">
+      <c r="H44" s="48">
         <v>3.22</v>
       </c>
-      <c r="I44" s="88">
+      <c r="I44" s="48">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="J44" s="88">
+      <c r="J44" s="48">
         <v>3.76</v>
       </c>
-      <c r="K44" s="84">
-        <f t="shared" si="3"/>
+      <c r="K44" s="48">
+        <f t="shared" si="5"/>
         <v>0.11703703703703704</v>
       </c>
-      <c r="L44" s="84">
-        <f t="shared" si="4"/>
+      <c r="L44" s="48">
+        <f t="shared" si="6"/>
         <v>0.47703703703703709</v>
       </c>
-      <c r="M44" s="89">
-        <f t="shared" si="5"/>
+      <c r="M44" s="52">
+        <f t="shared" si="7"/>
         <v>0.557037037037037</v>
       </c>
     </row>
-    <row r="45" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D45" s="10">
         <v>0.95</v>
       </c>
-      <c r="E45" s="92">
-        <f>$H$12*$D45</f>
+      <c r="E45" s="55">
+        <f t="shared" si="4"/>
         <v>2182.3435443779267</v>
       </c>
-      <c r="F45" s="88">
+      <c r="F45" s="48">
         <v>0.64</v>
       </c>
-      <c r="G45" s="88">
+      <c r="G45" s="48">
         <v>7.8</v>
       </c>
-      <c r="H45" s="88">
+      <c r="H45" s="48">
         <v>4.01</v>
       </c>
-      <c r="I45" s="88">
+      <c r="I45" s="48">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="J45" s="88">
+      <c r="J45" s="48">
         <v>4.1100000000000003</v>
       </c>
-      <c r="K45" s="84">
-        <f t="shared" si="3"/>
+      <c r="K45" s="48">
+        <f t="shared" si="5"/>
         <v>8.2051282051282051E-2</v>
       </c>
-      <c r="L45" s="84">
-        <f t="shared" si="4"/>
+      <c r="L45" s="48">
+        <f t="shared" si="6"/>
         <v>0.51410256410256405</v>
       </c>
-      <c r="M45" s="89">
-        <f t="shared" si="5"/>
+      <c r="M45" s="52">
+        <f t="shared" si="7"/>
         <v>0.52692307692307694</v>
       </c>
     </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D46" s="10">
         <v>1</v>
       </c>
-      <c r="E46" s="92">
-        <f>$H$12*$D46</f>
+      <c r="E46" s="55">
+        <f t="shared" si="4"/>
         <v>2297.2037309241337</v>
       </c>
-      <c r="F46" s="88">
+      <c r="F46" s="48">
         <v>0.63</v>
       </c>
-      <c r="G46" s="88">
+      <c r="G46" s="48">
         <v>7.82</v>
       </c>
-      <c r="H46" s="88">
+      <c r="H46" s="48">
         <v>4.18</v>
       </c>
-      <c r="I46" s="88">
+      <c r="I46" s="48">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J46" s="88">
+      <c r="J46" s="48">
         <v>4</v>
       </c>
-      <c r="K46" s="84">
-        <f t="shared" si="3"/>
+      <c r="K46" s="48">
+        <f t="shared" si="5"/>
         <v>8.0562659846547313E-2</v>
       </c>
-      <c r="L46" s="84">
-        <f t="shared" si="4"/>
+      <c r="L46" s="48">
+        <f t="shared" si="6"/>
         <v>0.53452685421994883</v>
       </c>
-      <c r="M46" s="89">
-        <f t="shared" si="5"/>
+      <c r="M46" s="52">
+        <f t="shared" si="7"/>
         <v>0.51150895140664965</v>
       </c>
     </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D47" s="10">
         <v>1.05</v>
       </c>
-      <c r="E47" s="92">
-        <f>$H$12*$D47</f>
+      <c r="E47" s="55">
+        <f t="shared" si="4"/>
         <v>2412.0639174703406</v>
       </c>
-      <c r="F47" s="88">
+      <c r="F47" s="48">
         <v>0.75</v>
       </c>
-      <c r="G47" s="88">
+      <c r="G47" s="48">
         <v>7.09</v>
       </c>
-      <c r="H47" s="88">
+      <c r="H47" s="48">
         <v>4.0199999999999996</v>
       </c>
-      <c r="I47" s="88">
+      <c r="I47" s="48">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="J47" s="88">
+      <c r="J47" s="48">
         <v>3.46</v>
       </c>
-      <c r="K47" s="84">
-        <f t="shared" si="3"/>
+      <c r="K47" s="48">
+        <f t="shared" si="5"/>
         <v>0.10578279266572638</v>
       </c>
-      <c r="L47" s="84">
-        <f t="shared" si="4"/>
+      <c r="L47" s="48">
+        <f t="shared" si="6"/>
         <v>0.56699576868829327</v>
       </c>
-      <c r="M47" s="89">
-        <f t="shared" si="5"/>
+      <c r="M47" s="52">
+        <f t="shared" si="7"/>
         <v>0.48801128349788436</v>
       </c>
     </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D48" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E48" s="92">
-        <f>$H$12*$D48</f>
+      <c r="E48" s="55">
+        <f t="shared" si="4"/>
         <v>2526.9241040165471</v>
       </c>
-      <c r="F48" s="88">
+      <c r="F48" s="48">
         <v>0.84</v>
       </c>
-      <c r="G48" s="88">
+      <c r="G48" s="48">
         <v>6.32</v>
       </c>
-      <c r="H48" s="88">
+      <c r="H48" s="48">
         <v>3.73</v>
       </c>
-      <c r="I48" s="88">
+      <c r="I48" s="48">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="J48" s="88">
+      <c r="J48" s="48">
         <v>2.98</v>
       </c>
-      <c r="K48" s="84">
-        <f t="shared" si="3"/>
+      <c r="K48" s="48">
+        <f t="shared" si="5"/>
         <v>0.13291139240506328</v>
       </c>
-      <c r="L48" s="84">
-        <f t="shared" si="4"/>
+      <c r="L48" s="48">
+        <f t="shared" si="6"/>
         <v>0.59018987341772144</v>
       </c>
-      <c r="M48" s="89">
-        <f t="shared" si="5"/>
+      <c r="M48" s="52">
+        <f t="shared" si="7"/>
         <v>0.47151898734177211</v>
       </c>
     </row>
-    <row r="49" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D49" s="10">
         <v>1.2</v>
       </c>
-      <c r="E49" s="92">
-        <f>$H$12*$D49</f>
+      <c r="E49" s="55">
+        <f t="shared" si="4"/>
         <v>2756.6444771089605</v>
       </c>
-      <c r="F49" s="88">
+      <c r="F49" s="48">
         <v>1.01</v>
       </c>
-      <c r="G49" s="88">
+      <c r="G49" s="48">
         <v>4.5199999999999996</v>
       </c>
-      <c r="H49" s="88">
+      <c r="H49" s="48">
         <v>2.98</v>
       </c>
-      <c r="I49" s="88">
+      <c r="I49" s="48">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="J49" s="88">
+      <c r="J49" s="48">
         <v>1.95</v>
       </c>
-      <c r="K49" s="84">
-        <f t="shared" si="3"/>
+      <c r="K49" s="48">
+        <f t="shared" si="5"/>
         <v>0.22345132743362833</v>
       </c>
-      <c r="L49" s="84">
-        <f t="shared" si="4"/>
+      <c r="L49" s="48">
+        <f t="shared" si="6"/>
         <v>0.65929203539823011</v>
       </c>
-      <c r="M49" s="89">
-        <f t="shared" si="5"/>
+      <c r="M49" s="52">
+        <f t="shared" si="7"/>
         <v>0.43141592920353983</v>
       </c>
     </row>
-    <row r="50" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D50" s="10">
         <v>1.3</v>
       </c>
-      <c r="E50" s="92">
-        <f>$H$12*$D50</f>
+      <c r="E50" s="55">
+        <f t="shared" si="4"/>
         <v>2986.3648502013739</v>
       </c>
-      <c r="F50" s="88">
+      <c r="F50" s="48">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G50" s="88">
+      <c r="G50" s="48">
         <v>3.45</v>
       </c>
-      <c r="H50" s="88">
+      <c r="H50" s="48">
         <v>2.5099999999999998</v>
       </c>
-      <c r="I50" s="88">
+      <c r="I50" s="48">
         <v>3.1E-2</v>
       </c>
-      <c r="J50" s="88">
+      <c r="J50" s="48">
         <v>1.39</v>
       </c>
-      <c r="K50" s="84">
-        <f t="shared" si="3"/>
+      <c r="K50" s="48">
+        <f t="shared" si="5"/>
         <v>0.31594202898550727</v>
       </c>
-      <c r="L50" s="84">
-        <f t="shared" si="4"/>
+      <c r="L50" s="48">
+        <f t="shared" si="6"/>
         <v>0.72753623188405792</v>
       </c>
-      <c r="M50" s="89">
-        <f t="shared" si="5"/>
+      <c r="M50" s="52">
+        <f t="shared" si="7"/>
         <v>0.40289855072463765</v>
       </c>
     </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D51" s="10">
         <v>1.5</v>
       </c>
-      <c r="E51" s="92">
-        <f>$H$12*$D51</f>
+      <c r="E51" s="55">
+        <f t="shared" si="4"/>
         <v>3445.8055963862007</v>
       </c>
-      <c r="F51" s="88">
+      <c r="F51" s="48">
         <v>1.17</v>
       </c>
-      <c r="G51" s="88">
+      <c r="G51" s="48">
         <v>2.42</v>
       </c>
-      <c r="H51" s="88">
+      <c r="H51" s="48">
         <v>2.09</v>
       </c>
-      <c r="I51" s="88">
+      <c r="I51" s="48">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="J51" s="88">
+      <c r="J51" s="48">
         <v>0.87</v>
       </c>
-      <c r="K51" s="84">
-        <f t="shared" si="3"/>
+      <c r="K51" s="48">
+        <f t="shared" si="5"/>
         <v>0.48347107438016529</v>
       </c>
-      <c r="L51" s="84">
-        <f t="shared" si="4"/>
+      <c r="L51" s="48">
+        <f t="shared" si="6"/>
         <v>0.86363636363636365</v>
       </c>
-      <c r="M51" s="89">
-        <f t="shared" si="5"/>
+      <c r="M51" s="52">
+        <f t="shared" si="7"/>
         <v>0.35950413223140498</v>
       </c>
     </row>
-    <row r="52" spans="4:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:13" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D52" s="11">
         <v>1.7</v>
       </c>
-      <c r="E52" s="93">
-        <f>$H$12*$D52</f>
+      <c r="E52" s="56">
+        <f t="shared" si="4"/>
         <v>3905.2463425710271</v>
       </c>
-      <c r="F52" s="85">
+      <c r="F52" s="49">
         <v>1.23</v>
       </c>
-      <c r="G52" s="85">
+      <c r="G52" s="49">
         <v>1.86</v>
       </c>
-      <c r="H52" s="85">
+      <c r="H52" s="49">
         <v>1.88</v>
       </c>
-      <c r="I52" s="85">
+      <c r="I52" s="49">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="J52" s="85">
+      <c r="J52" s="49">
         <v>0.6</v>
       </c>
-      <c r="K52" s="85">
-        <f t="shared" si="3"/>
+      <c r="K52" s="49">
+        <f t="shared" si="5"/>
         <v>0.66129032258064513</v>
       </c>
-      <c r="L52" s="85">
-        <f t="shared" si="4"/>
+      <c r="L52" s="49">
+        <f t="shared" si="6"/>
         <v>1.010752688172043</v>
       </c>
-      <c r="M52" s="90">
-        <f t="shared" si="5"/>
+      <c r="M52" s="53">
+        <f t="shared" si="7"/>
         <v>0.32258064516129031</v>
       </c>
     </row>
-    <row r="55" spans="4:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="4:13" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D56" s="48" t="str">
+      <c r="D56" s="60" t="str">
         <f>I13</f>
         <v>Jirka</v>
       </c>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="49"/>
-      <c r="L56" s="49"/>
-      <c r="M56" s="50"/>
-    </row>
-    <row r="57" spans="4:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="59"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="60"/>
-      <c r="L57" s="60"/>
-      <c r="M57" s="61"/>
-    </row>
-    <row r="58" spans="4:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D58" s="87" t="s">
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="61"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="61"/>
+      <c r="M56" s="62"/>
+    </row>
+    <row r="57" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D57" s="69"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="70"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="70"/>
+      <c r="L57" s="70"/>
+      <c r="M57" s="71"/>
+    </row>
+    <row r="58" spans="4:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D58" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="E58" s="86" t="s">
+      <c r="E58" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="F58" s="86" t="s">
+      <c r="F58" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="G58" s="86" t="s">
+      <c r="G58" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="H58" s="86" t="s">
+      <c r="H58" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="I58" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="J58" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="I58" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="J58" s="86" t="s">
+      <c r="K58" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="K58" s="86" t="s">
-        <v>108</v>
-      </c>
-      <c r="L58" s="86" t="s">
+      <c r="L58" s="50" t="s">
         <v>116</v>
       </c>
       <c r="M58" s="46" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D59" s="17">
         <v>0.3</v>
       </c>
-      <c r="E59" s="91">
-        <f>$H$13*$D59</f>
+      <c r="E59" s="54">
+        <f t="shared" ref="E59:E71" si="8">$H$13*$D59</f>
         <v>520.95683853214246</v>
       </c>
-      <c r="F59" s="94">
+      <c r="F59" s="57">
         <v>1.07</v>
       </c>
-      <c r="G59" s="94">
+      <c r="G59" s="57">
         <v>0.78</v>
       </c>
-      <c r="H59" s="95">
+      <c r="H59" s="57">
         <v>0.12</v>
       </c>
-      <c r="I59" s="95">
+      <c r="I59" s="57">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="J59" s="95">
+      <c r="J59" s="57">
         <v>1.18</v>
       </c>
-      <c r="K59" s="94">
+      <c r="K59" s="57">
         <f>$F59/$G59</f>
         <v>1.3717948717948718</v>
       </c>
-      <c r="L59" s="94">
+      <c r="L59" s="57">
         <f>$H59/$G59</f>
         <v>0.15384615384615383</v>
       </c>
-      <c r="M59" s="96">
+      <c r="M59" s="58">
         <f>$J59/$G59</f>
         <v>1.5128205128205128</v>
       </c>
     </row>
-    <row r="60" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D60" s="10">
         <v>0.5</v>
       </c>
-      <c r="E60" s="92">
-        <f>$H$13*$D60</f>
+      <c r="E60" s="55">
+        <f t="shared" si="8"/>
         <v>868.26139755357076</v>
       </c>
-      <c r="F60" s="84">
+      <c r="F60" s="48">
         <v>1.06</v>
       </c>
-      <c r="G60" s="84">
+      <c r="G60" s="48">
         <v>1.59</v>
       </c>
-      <c r="H60" s="88">
+      <c r="H60" s="48">
         <v>0.4</v>
       </c>
-      <c r="I60" s="88">
+      <c r="I60" s="48">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="J60" s="88">
+      <c r="J60" s="48">
         <v>1.44</v>
       </c>
-      <c r="K60" s="84">
-        <f t="shared" ref="K60:K71" si="6">$F60/$G60</f>
+      <c r="K60" s="48">
+        <f t="shared" ref="K60:K71" si="9">$F60/$G60</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="L60" s="84">
-        <f t="shared" ref="L60:L71" si="7">$H60/$G60</f>
+      <c r="L60" s="48">
+        <f t="shared" ref="L60:L71" si="10">$H60/$G60</f>
         <v>0.25157232704402516</v>
       </c>
-      <c r="M60" s="89">
-        <f t="shared" ref="M60:M71" si="8">$J60/$G60</f>
+      <c r="M60" s="52">
+        <f t="shared" ref="M60:M71" si="11">$J60/$G60</f>
         <v>0.90566037735849048</v>
       </c>
     </row>
-    <row r="61" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D61" s="10">
         <v>0.7</v>
       </c>
-      <c r="E61" s="92">
-        <f>$H$13*$D61</f>
+      <c r="E61" s="55">
+        <f t="shared" si="8"/>
         <v>1215.5659565749991</v>
       </c>
-      <c r="F61" s="84">
+      <c r="F61" s="48">
         <v>1.02</v>
       </c>
-      <c r="G61" s="84">
+      <c r="G61" s="48">
         <v>3.07</v>
       </c>
-      <c r="H61" s="88">
+      <c r="H61" s="48">
         <v>1.08</v>
       </c>
-      <c r="I61" s="88">
+      <c r="I61" s="48">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="J61" s="88">
+      <c r="J61" s="48">
         <v>2.04</v>
       </c>
-      <c r="K61" s="84">
-        <f t="shared" si="6"/>
+      <c r="K61" s="48">
+        <f t="shared" si="9"/>
         <v>0.33224755700325737</v>
       </c>
-      <c r="L61" s="84">
-        <f t="shared" si="7"/>
+      <c r="L61" s="48">
+        <f t="shared" si="10"/>
         <v>0.35179153094462545</v>
       </c>
-      <c r="M61" s="89">
-        <f t="shared" si="8"/>
+      <c r="M61" s="52">
+        <f t="shared" si="11"/>
         <v>0.66449511400651473</v>
       </c>
     </row>
-    <row r="62" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D62" s="10">
         <v>0.8</v>
       </c>
-      <c r="E62" s="92">
-        <f>$H$13*$D62</f>
+      <c r="E62" s="55">
+        <f t="shared" si="8"/>
         <v>1389.2182360857132</v>
       </c>
-      <c r="F62" s="88">
+      <c r="F62" s="48">
         <v>0.93</v>
       </c>
-      <c r="G62" s="88">
+      <c r="G62" s="48">
         <v>4.53</v>
       </c>
-      <c r="H62" s="88">
+      <c r="H62" s="48">
         <v>1.84</v>
       </c>
-      <c r="I62" s="88">
+      <c r="I62" s="48">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="J62" s="88">
+      <c r="J62" s="48">
         <v>2.64</v>
       </c>
-      <c r="K62" s="84">
-        <f t="shared" si="6"/>
+      <c r="K62" s="48">
+        <f t="shared" si="9"/>
         <v>0.20529801324503311</v>
       </c>
-      <c r="L62" s="84">
-        <f t="shared" si="7"/>
+      <c r="L62" s="48">
+        <f t="shared" si="10"/>
         <v>0.40618101545253865</v>
       </c>
-      <c r="M62" s="89">
-        <f t="shared" si="8"/>
+      <c r="M62" s="52">
+        <f t="shared" si="11"/>
         <v>0.58278145695364236</v>
       </c>
     </row>
-    <row r="63" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D63" s="10">
         <v>0.9</v>
       </c>
-      <c r="E63" s="92">
-        <f>$H$13*$D63</f>
+      <c r="E63" s="55">
+        <f t="shared" si="8"/>
         <v>1562.8705155964274</v>
       </c>
-      <c r="F63" s="88">
+      <c r="F63" s="48">
         <v>0.75</v>
       </c>
-      <c r="G63" s="88">
+      <c r="G63" s="48">
         <v>6.36</v>
       </c>
-      <c r="H63" s="88">
+      <c r="H63" s="48">
         <v>2.94</v>
       </c>
-      <c r="I63" s="88">
+      <c r="I63" s="48">
         <v>0.06</v>
       </c>
-      <c r="J63" s="88">
+      <c r="J63" s="48">
         <v>3.32</v>
       </c>
-      <c r="K63" s="84">
-        <f t="shared" si="6"/>
+      <c r="K63" s="48">
+        <f t="shared" si="9"/>
         <v>0.11792452830188678</v>
       </c>
-      <c r="L63" s="84">
-        <f t="shared" si="7"/>
+      <c r="L63" s="48">
+        <f t="shared" si="10"/>
         <v>0.46226415094339618</v>
       </c>
-      <c r="M63" s="89">
-        <f t="shared" si="8"/>
+      <c r="M63" s="52">
+        <f t="shared" si="11"/>
         <v>0.5220125786163522</v>
       </c>
     </row>
-    <row r="64" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D64" s="10">
         <v>0.95</v>
       </c>
-      <c r="E64" s="92">
-        <f>$H$13*$D64</f>
+      <c r="E64" s="55">
+        <f t="shared" si="8"/>
         <v>1649.6966553517843</v>
       </c>
-      <c r="F64" s="88">
+      <c r="F64" s="48">
         <v>0.67</v>
       </c>
-      <c r="G64" s="88">
+      <c r="G64" s="48">
         <v>6.87</v>
       </c>
-      <c r="H64" s="88">
+      <c r="H64" s="48">
         <v>3.43</v>
       </c>
-      <c r="I64" s="88">
+      <c r="I64" s="48">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="J64" s="88">
+      <c r="J64" s="48">
         <v>3.36</v>
       </c>
-      <c r="K64" s="84">
-        <f t="shared" si="6"/>
+      <c r="K64" s="48">
+        <f t="shared" si="9"/>
         <v>9.75254730713246E-2</v>
       </c>
-      <c r="L64" s="84">
-        <f t="shared" si="7"/>
+      <c r="L64" s="48">
+        <f t="shared" si="10"/>
         <v>0.49927219796215433</v>
       </c>
-      <c r="M64" s="89">
-        <f t="shared" si="8"/>
+      <c r="M64" s="52">
+        <f t="shared" si="11"/>
         <v>0.48908296943231439</v>
       </c>
     </row>
-    <row r="65" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D65" s="10">
         <v>1</v>
       </c>
-      <c r="E65" s="92">
-        <f>$H$13*$D65</f>
+      <c r="E65" s="55">
+        <f t="shared" si="8"/>
         <v>1736.5227951071415</v>
       </c>
-      <c r="F65" s="88">
+      <c r="F65" s="48">
         <v>0.69</v>
       </c>
-      <c r="G65" s="88">
+      <c r="G65" s="48">
         <v>6.76</v>
       </c>
-      <c r="H65" s="88">
+      <c r="H65" s="48">
         <v>3.48</v>
       </c>
-      <c r="I65" s="88">
+      <c r="I65" s="48">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="J65" s="88">
+      <c r="J65" s="48">
         <v>3.22</v>
       </c>
-      <c r="K65" s="84">
-        <f t="shared" si="6"/>
+      <c r="K65" s="48">
+        <f t="shared" si="9"/>
         <v>0.10207100591715976</v>
       </c>
-      <c r="L65" s="84">
-        <f t="shared" si="7"/>
+      <c r="L65" s="48">
+        <f t="shared" si="10"/>
         <v>0.51479289940828399</v>
       </c>
-      <c r="M65" s="89">
-        <f t="shared" si="8"/>
+      <c r="M65" s="52">
+        <f t="shared" si="11"/>
         <v>0.47633136094674561</v>
       </c>
     </row>
-    <row r="66" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D66" s="10">
         <v>1.05</v>
       </c>
-      <c r="E66" s="92">
-        <f>$H$13*$D66</f>
+      <c r="E66" s="55">
+        <f t="shared" si="8"/>
         <v>1823.3489348624987</v>
       </c>
-      <c r="F66" s="88">
+      <c r="F66" s="48">
         <v>0.82</v>
       </c>
-      <c r="G66" s="88">
+      <c r="G66" s="48">
         <v>5.82</v>
       </c>
-      <c r="H66" s="88">
+      <c r="H66" s="48">
         <v>3.24</v>
       </c>
-      <c r="I66" s="88">
+      <c r="I66" s="48">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="J66" s="88">
+      <c r="J66" s="48">
         <v>2.57</v>
       </c>
-      <c r="K66" s="84">
-        <f t="shared" si="6"/>
+      <c r="K66" s="48">
+        <f t="shared" si="9"/>
         <v>0.14089347079037798</v>
       </c>
-      <c r="L66" s="84">
-        <f t="shared" si="7"/>
+      <c r="L66" s="48">
+        <f t="shared" si="10"/>
         <v>0.55670103092783507</v>
       </c>
-      <c r="M66" s="89">
-        <f t="shared" si="8"/>
+      <c r="M66" s="52">
+        <f t="shared" si="11"/>
         <v>0.44158075601374563</v>
       </c>
     </row>
-    <row r="67" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D67" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E67" s="92">
-        <f>$H$13*$D67</f>
+      <c r="E67" s="55">
+        <f t="shared" si="8"/>
         <v>1910.1750746178559</v>
       </c>
-      <c r="F67" s="88">
+      <c r="F67" s="48">
         <v>0.87</v>
       </c>
-      <c r="G67" s="88">
+      <c r="G67" s="48">
         <v>5.23</v>
       </c>
-      <c r="H67" s="88">
+      <c r="H67" s="48">
         <v>3.03</v>
       </c>
-      <c r="I67" s="88">
+      <c r="I67" s="48">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="J67" s="88">
+      <c r="J67" s="48">
         <v>2.2400000000000002</v>
       </c>
-      <c r="K67" s="84">
-        <f t="shared" si="6"/>
+      <c r="K67" s="48">
+        <f t="shared" si="9"/>
         <v>0.16634799235181644</v>
       </c>
-      <c r="L67" s="84">
-        <f t="shared" si="7"/>
+      <c r="L67" s="48">
+        <f t="shared" si="10"/>
         <v>0.57934990439770551</v>
       </c>
-      <c r="M67" s="89">
-        <f t="shared" si="8"/>
+      <c r="M67" s="52">
+        <f t="shared" si="11"/>
         <v>0.42829827915869984</v>
       </c>
     </row>
-    <row r="68" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D68" s="10">
         <v>1.2</v>
       </c>
-      <c r="E68" s="92">
-        <f>$H$13*$D68</f>
+      <c r="E68" s="55">
+        <f t="shared" si="8"/>
         <v>2083.8273541285698</v>
       </c>
-      <c r="F68" s="88">
+      <c r="F68" s="48">
         <v>1</v>
       </c>
-      <c r="G68" s="88">
+      <c r="G68" s="48">
         <v>3.9</v>
       </c>
-      <c r="H68" s="88">
+      <c r="H68" s="48">
         <v>2.5</v>
       </c>
-      <c r="I68" s="88">
+      <c r="I68" s="48">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="J68" s="88">
+      <c r="J68" s="48">
         <v>1.59</v>
       </c>
-      <c r="K68" s="84">
-        <f t="shared" si="6"/>
+      <c r="K68" s="48">
+        <f t="shared" si="9"/>
         <v>0.25641025641025644</v>
       </c>
-      <c r="L68" s="84">
-        <f t="shared" si="7"/>
+      <c r="L68" s="48">
+        <f t="shared" si="10"/>
         <v>0.64102564102564108</v>
       </c>
-      <c r="M68" s="89">
-        <f t="shared" si="8"/>
+      <c r="M68" s="52">
+        <f t="shared" si="11"/>
         <v>0.40769230769230774</v>
       </c>
     </row>
-    <row r="69" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D69" s="10">
         <v>1.3</v>
       </c>
-      <c r="E69" s="92">
-        <f>$H$13*$D69</f>
+      <c r="E69" s="55">
+        <f t="shared" si="8"/>
         <v>2257.4796336392842</v>
       </c>
-      <c r="F69" s="88">
+      <c r="F69" s="48">
         <v>1.06</v>
       </c>
-      <c r="G69" s="88">
+      <c r="G69" s="48">
         <v>3.02</v>
       </c>
-      <c r="H69" s="88">
+      <c r="H69" s="48">
         <v>2.15</v>
       </c>
-      <c r="I69" s="88">
+      <c r="I69" s="48">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="J69" s="88">
+      <c r="J69" s="48">
         <v>1.08</v>
       </c>
-      <c r="K69" s="84">
-        <f t="shared" si="6"/>
+      <c r="K69" s="48">
+        <f t="shared" si="9"/>
         <v>0.35099337748344372</v>
       </c>
-      <c r="L69" s="84">
-        <f t="shared" si="7"/>
+      <c r="L69" s="48">
+        <f t="shared" si="10"/>
         <v>0.71192052980132448</v>
       </c>
-      <c r="M69" s="89">
-        <f t="shared" si="8"/>
+      <c r="M69" s="52">
+        <f t="shared" si="11"/>
         <v>0.35761589403973509</v>
       </c>
     </row>
-    <row r="70" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D70" s="10">
         <v>1.5</v>
       </c>
-      <c r="E70" s="92">
-        <f>$H$13*$D70</f>
+      <c r="E70" s="55">
+        <f t="shared" si="8"/>
         <v>2604.7841926607125</v>
       </c>
-      <c r="F70" s="88">
+      <c r="F70" s="48">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G70" s="88">
+      <c r="G70" s="48">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H70" s="88">
+      <c r="H70" s="48">
         <v>1.87</v>
       </c>
-      <c r="I70" s="88">
+      <c r="I70" s="48">
         <v>0.03</v>
       </c>
-      <c r="J70" s="88">
+      <c r="J70" s="48">
         <v>0.74</v>
       </c>
-      <c r="K70" s="84">
-        <f t="shared" si="6"/>
+      <c r="K70" s="48">
+        <f t="shared" si="9"/>
         <v>0.48260869565217401</v>
       </c>
-      <c r="L70" s="84">
-        <f t="shared" si="7"/>
+      <c r="L70" s="48">
+        <f t="shared" si="10"/>
         <v>0.81304347826086965</v>
       </c>
-      <c r="M70" s="89">
-        <f t="shared" si="8"/>
+      <c r="M70" s="52">
+        <f t="shared" si="11"/>
         <v>0.32173913043478264</v>
       </c>
     </row>
-    <row r="71" spans="4:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:13" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D71" s="11">
         <v>1.7</v>
       </c>
-      <c r="E71" s="93">
-        <f>$H$13*$D71</f>
+      <c r="E71" s="56">
+        <f t="shared" si="8"/>
         <v>2952.0887516821404</v>
       </c>
-      <c r="F71" s="85">
+      <c r="F71" s="49">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G71" s="85">
+      <c r="G71" s="49">
         <v>1.73</v>
       </c>
-      <c r="H71" s="85">
+      <c r="H71" s="49">
         <v>1.68</v>
       </c>
-      <c r="I71" s="85">
+      <c r="I71" s="49">
         <v>2.7E-2</v>
       </c>
-      <c r="J71" s="85">
+      <c r="J71" s="49">
         <v>0.48</v>
       </c>
-      <c r="K71" s="85">
-        <f t="shared" si="6"/>
+      <c r="K71" s="49">
+        <f t="shared" si="9"/>
         <v>0.66473988439306353</v>
       </c>
-      <c r="L71" s="85">
-        <f t="shared" si="7"/>
+      <c r="L71" s="49">
+        <f t="shared" si="10"/>
         <v>0.97109826589595372</v>
       </c>
-      <c r="M71" s="90">
-        <f t="shared" si="8"/>
+      <c r="M71" s="53">
+        <f t="shared" si="11"/>
         <v>0.2774566473988439</v>
       </c>
     </row>
-    <row r="74" spans="4:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="4:13" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="75" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D75" s="48" t="str">
+      <c r="D75" s="60" t="str">
         <f>I14</f>
         <v>Ondra</v>
       </c>
-      <c r="E75" s="49"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="49"/>
-      <c r="I75" s="49"/>
-      <c r="J75" s="49"/>
-      <c r="K75" s="49"/>
-      <c r="L75" s="49"/>
-      <c r="M75" s="50"/>
-    </row>
-    <row r="76" spans="4:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D76" s="59"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="60"/>
-      <c r="G76" s="60"/>
-      <c r="H76" s="60"/>
-      <c r="I76" s="60"/>
-      <c r="J76" s="60"/>
-      <c r="K76" s="60"/>
-      <c r="L76" s="60"/>
-      <c r="M76" s="61"/>
-    </row>
-    <row r="77" spans="4:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D77" s="87" t="s">
+      <c r="E75" s="61"/>
+      <c r="F75" s="61"/>
+      <c r="G75" s="61"/>
+      <c r="H75" s="61"/>
+      <c r="I75" s="61"/>
+      <c r="J75" s="61"/>
+      <c r="K75" s="61"/>
+      <c r="L75" s="61"/>
+      <c r="M75" s="62"/>
+    </row>
+    <row r="76" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D76" s="69"/>
+      <c r="E76" s="70"/>
+      <c r="F76" s="70"/>
+      <c r="G76" s="70"/>
+      <c r="H76" s="70"/>
+      <c r="I76" s="70"/>
+      <c r="J76" s="70"/>
+      <c r="K76" s="70"/>
+      <c r="L76" s="70"/>
+      <c r="M76" s="71"/>
+    </row>
+    <row r="77" spans="4:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D77" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="E77" s="86" t="s">
+      <c r="E77" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="F77" s="86" t="s">
+      <c r="F77" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="G77" s="86" t="s">
+      <c r="G77" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="H77" s="86" t="s">
+      <c r="H77" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="I77" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="J77" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="I77" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="J77" s="86" t="s">
+      <c r="K77" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="K77" s="86" t="s">
-        <v>108</v>
-      </c>
-      <c r="L77" s="86" t="s">
+      <c r="L77" s="50" t="s">
         <v>116</v>
       </c>
       <c r="M77" s="46" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D78" s="17">
         <v>0.3</v>
       </c>
-      <c r="E78" s="84">
-        <f>$H$14*$D78</f>
+      <c r="E78" s="48">
+        <f t="shared" ref="E78:E90" si="12">$H$14*$D78</f>
         <v>418.76435745330195</v>
       </c>
-      <c r="F78" s="84">
+      <c r="F78" s="48">
         <v>1.07</v>
       </c>
-      <c r="G78" s="84">
+      <c r="G78" s="48">
         <v>0.76</v>
       </c>
-      <c r="H78" s="88">
+      <c r="H78" s="48">
         <v>0.12</v>
       </c>
-      <c r="I78" s="88">
+      <c r="I78" s="48">
         <v>1.6E-2</v>
       </c>
-      <c r="J78" s="88">
+      <c r="J78" s="48">
         <v>1.17</v>
       </c>
-      <c r="K78" s="84">
+      <c r="K78" s="48">
         <f>$F78/$G78</f>
         <v>1.4078947368421053</v>
       </c>
-      <c r="L78" s="84">
+      <c r="L78" s="48">
         <f>$H78/$G78</f>
         <v>0.15789473684210525</v>
       </c>
-      <c r="M78" s="89">
+      <c r="M78" s="52">
         <f>$J78/$G78</f>
         <v>1.5394736842105261</v>
       </c>
     </row>
-    <row r="79" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D79" s="10">
         <v>0.5</v>
       </c>
-      <c r="E79" s="84">
-        <f>$H$14*$D79</f>
+      <c r="E79" s="48">
+        <f t="shared" si="12"/>
         <v>697.9405957555033</v>
       </c>
-      <c r="F79" s="84">
+      <c r="F79" s="48">
         <v>1.05</v>
       </c>
-      <c r="G79" s="84">
+      <c r="G79" s="48">
         <v>1.56</v>
       </c>
-      <c r="H79" s="88">
+      <c r="H79" s="48">
         <v>0.39</v>
       </c>
-      <c r="I79" s="88">
+      <c r="I79" s="48">
         <v>2.3E-2</v>
       </c>
-      <c r="J79" s="88">
+      <c r="J79" s="48">
         <v>1.42</v>
       </c>
-      <c r="K79" s="84">
-        <f t="shared" ref="K79:K90" si="9">$F79/$G79</f>
+      <c r="K79" s="48">
+        <f t="shared" ref="K79:K90" si="13">$F79/$G79</f>
         <v>0.67307692307692313</v>
       </c>
-      <c r="L79" s="84">
-        <f t="shared" ref="L79:L90" si="10">$H79/$G79</f>
+      <c r="L79" s="48">
+        <f t="shared" ref="L79:L90" si="14">$H79/$G79</f>
         <v>0.25</v>
       </c>
-      <c r="M79" s="89">
-        <f t="shared" ref="M79:M90" si="11">$J79/$G79</f>
+      <c r="M79" s="52">
+        <f t="shared" ref="M79:M90" si="15">$J79/$G79</f>
         <v>0.91025641025641013</v>
       </c>
     </row>
-    <row r="80" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D80" s="10">
         <v>0.7</v>
       </c>
-      <c r="E80" s="84">
-        <f>$H$14*$D80</f>
+      <c r="E80" s="48">
+        <f t="shared" si="12"/>
         <v>977.11683405770452</v>
       </c>
-      <c r="F80" s="84">
+      <c r="F80" s="48">
         <v>1</v>
       </c>
-      <c r="G80" s="84">
+      <c r="G80" s="48">
         <v>3.07</v>
       </c>
-      <c r="H80" s="88">
+      <c r="H80" s="48">
         <v>1.0900000000000001</v>
       </c>
-      <c r="I80" s="88">
+      <c r="I80" s="48">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="J80" s="88">
+      <c r="J80" s="48">
         <v>2</v>
       </c>
-      <c r="K80" s="84">
-        <f t="shared" si="9"/>
+      <c r="K80" s="48">
+        <f t="shared" si="13"/>
         <v>0.32573289902280134</v>
       </c>
-      <c r="L80" s="84">
-        <f t="shared" si="10"/>
+      <c r="L80" s="48">
+        <f t="shared" si="14"/>
         <v>0.35504885993485347</v>
       </c>
-      <c r="M80" s="89">
-        <f t="shared" si="11"/>
+      <c r="M80" s="52">
+        <f t="shared" si="15"/>
         <v>0.65146579804560267</v>
       </c>
     </row>
-    <row r="81" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D81" s="10">
         <v>0.8</v>
       </c>
-      <c r="E81" s="84">
-        <f>$H$14*$D81</f>
+      <c r="E81" s="48">
+        <f t="shared" si="12"/>
         <v>1116.7049532088054</v>
       </c>
-      <c r="F81" s="88">
+      <c r="F81" s="48">
         <v>0.87</v>
       </c>
-      <c r="G81" s="88">
+      <c r="G81" s="48">
         <v>4.82</v>
       </c>
-      <c r="H81" s="88">
+      <c r="H81" s="48">
         <v>2.0499999999999998</v>
       </c>
-      <c r="I81" s="88">
+      <c r="I81" s="48">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="J81" s="88">
+      <c r="J81" s="48">
         <v>2.67</v>
       </c>
-      <c r="K81" s="84">
-        <f t="shared" si="9"/>
+      <c r="K81" s="48">
+        <f t="shared" si="13"/>
         <v>0.18049792531120332</v>
       </c>
-      <c r="L81" s="84">
-        <f t="shared" si="10"/>
+      <c r="L81" s="48">
+        <f t="shared" si="14"/>
         <v>0.42531120331950201</v>
       </c>
-      <c r="M81" s="89">
-        <f t="shared" si="11"/>
+      <c r="M81" s="52">
+        <f t="shared" si="15"/>
         <v>0.55394190871369287</v>
       </c>
     </row>
-    <row r="82" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D82" s="10">
         <v>0.9</v>
       </c>
-      <c r="E82" s="84">
-        <f>$H$14*$D82</f>
+      <c r="E82" s="48">
+        <f t="shared" si="12"/>
         <v>1256.2930723599059</v>
       </c>
-      <c r="F82" s="88">
+      <c r="F82" s="48">
         <v>0.81</v>
       </c>
-      <c r="G82" s="88">
+      <c r="G82" s="48">
         <v>5.36</v>
       </c>
-      <c r="H82" s="88">
+      <c r="H82" s="48">
         <v>2.38</v>
       </c>
-      <c r="I82" s="88">
+      <c r="I82" s="48">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="J82" s="88">
+      <c r="J82" s="48">
         <v>2.85</v>
       </c>
-      <c r="K82" s="84">
-        <f t="shared" si="9"/>
+      <c r="K82" s="48">
+        <f t="shared" si="13"/>
         <v>0.15111940298507462</v>
       </c>
-      <c r="L82" s="84">
-        <f t="shared" si="10"/>
+      <c r="L82" s="48">
+        <f t="shared" si="14"/>
         <v>0.44402985074626861</v>
       </c>
-      <c r="M82" s="89">
-        <f t="shared" si="11"/>
+      <c r="M82" s="52">
+        <f t="shared" si="15"/>
         <v>0.53171641791044777</v>
       </c>
     </row>
-    <row r="83" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D83" s="10">
         <v>0.95</v>
       </c>
-      <c r="E83" s="84">
-        <f>$H$14*$D83</f>
+      <c r="E83" s="48">
+        <f t="shared" si="12"/>
         <v>1326.0871319354562</v>
       </c>
-      <c r="F83" s="88">
+      <c r="F83" s="48">
         <v>0.72</v>
       </c>
-      <c r="G83" s="88">
+      <c r="G83" s="48">
         <v>6.01</v>
       </c>
-      <c r="H83" s="88">
+      <c r="H83" s="48">
         <v>2.88</v>
       </c>
-      <c r="I83" s="88">
+      <c r="I83" s="48">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="J83" s="88">
+      <c r="J83" s="48">
         <v>2.99</v>
       </c>
-      <c r="K83" s="84">
-        <f t="shared" si="9"/>
+      <c r="K83" s="48">
+        <f t="shared" si="13"/>
         <v>0.11980033277870217</v>
       </c>
-      <c r="L83" s="84">
-        <f t="shared" si="10"/>
+      <c r="L83" s="48">
+        <f t="shared" si="14"/>
         <v>0.47920133111480867</v>
       </c>
-      <c r="M83" s="89">
-        <f t="shared" si="11"/>
+      <c r="M83" s="52">
+        <f t="shared" si="15"/>
         <v>0.4975041597337771</v>
       </c>
     </row>
-    <row r="84" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D84" s="10">
         <v>1</v>
       </c>
-      <c r="E84" s="84">
-        <f>$H$14*$D84</f>
+      <c r="E84" s="48">
+        <f t="shared" si="12"/>
         <v>1395.8811915110066</v>
       </c>
-      <c r="F84" s="88">
+      <c r="F84" s="48">
         <v>0.72</v>
       </c>
-      <c r="G84" s="88">
+      <c r="G84" s="48">
         <v>6.06</v>
       </c>
-      <c r="H84" s="88">
+      <c r="H84" s="48">
         <v>3.04</v>
       </c>
-      <c r="I84" s="88">
+      <c r="I84" s="48">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="J84" s="88">
+      <c r="J84" s="48">
         <v>2.88</v>
       </c>
-      <c r="K84" s="84">
-        <f t="shared" si="9"/>
+      <c r="K84" s="48">
+        <f t="shared" si="13"/>
         <v>0.11881188118811882</v>
       </c>
-      <c r="L84" s="84">
-        <f t="shared" si="10"/>
+      <c r="L84" s="48">
+        <f t="shared" si="14"/>
         <v>0.50165016501650173</v>
       </c>
-      <c r="M84" s="89">
-        <f t="shared" si="11"/>
+      <c r="M84" s="52">
+        <f t="shared" si="15"/>
         <v>0.47524752475247528</v>
       </c>
     </row>
-    <row r="85" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D85" s="10">
         <v>1.05</v>
       </c>
-      <c r="E85" s="84">
-        <f>$H$14*$D85</f>
+      <c r="E85" s="48">
+        <f t="shared" si="12"/>
         <v>1465.675251086557</v>
       </c>
-      <c r="F85" s="88">
+      <c r="F85" s="48">
         <v>0.76</v>
       </c>
-      <c r="G85" s="88">
+      <c r="G85" s="48">
         <v>5.77</v>
       </c>
-      <c r="H85" s="88">
+      <c r="H85" s="48">
         <v>3.04</v>
       </c>
-      <c r="I85" s="88">
+      <c r="I85" s="48">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="J85" s="88">
+      <c r="J85" s="48">
         <v>2.62</v>
       </c>
-      <c r="K85" s="84">
-        <f t="shared" si="9"/>
+      <c r="K85" s="48">
+        <f t="shared" si="13"/>
         <v>0.1317157712305026</v>
       </c>
-      <c r="L85" s="84">
-        <f t="shared" si="10"/>
+      <c r="L85" s="48">
+        <f t="shared" si="14"/>
         <v>0.52686308492201039</v>
       </c>
-      <c r="M85" s="89">
-        <f t="shared" si="11"/>
+      <c r="M85" s="52">
+        <f t="shared" si="15"/>
         <v>0.45407279029462744</v>
       </c>
     </row>
-    <row r="86" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D86" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E86" s="84">
-        <f>$H$14*$D86</f>
+      <c r="E86" s="48">
+        <f t="shared" si="12"/>
         <v>1535.4693106621073</v>
       </c>
-      <c r="F86" s="88">
+      <c r="F86" s="48">
         <v>0.82</v>
       </c>
-      <c r="G86" s="88">
+      <c r="G86" s="48">
         <v>5.3</v>
       </c>
-      <c r="H86" s="88">
+      <c r="H86" s="48">
         <v>2.92</v>
       </c>
-      <c r="I86" s="88">
+      <c r="I86" s="48">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="J86" s="88">
+      <c r="J86" s="48">
         <v>2.31</v>
       </c>
-      <c r="K86" s="84">
-        <f t="shared" si="9"/>
+      <c r="K86" s="48">
+        <f t="shared" si="13"/>
         <v>0.15471698113207547</v>
       </c>
-      <c r="L86" s="84">
-        <f t="shared" si="10"/>
+      <c r="L86" s="48">
+        <f t="shared" si="14"/>
         <v>0.55094339622641508</v>
       </c>
-      <c r="M86" s="89">
-        <f t="shared" si="11"/>
+      <c r="M86" s="52">
+        <f t="shared" si="15"/>
         <v>0.4358490566037736</v>
       </c>
     </row>
-    <row r="87" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D87" s="10">
         <v>1.2</v>
       </c>
-      <c r="E87" s="84">
-        <f>$H$14*$D87</f>
+      <c r="E87" s="48">
+        <f t="shared" si="12"/>
         <v>1675.0574298132078</v>
       </c>
-      <c r="F87" s="88">
+      <c r="F87" s="48">
         <v>0.97</v>
       </c>
-      <c r="G87" s="88">
+      <c r="G87" s="48">
         <v>3.83</v>
       </c>
-      <c r="H87" s="88">
+      <c r="H87" s="48">
         <v>2.4</v>
       </c>
-      <c r="I87" s="88">
+      <c r="I87" s="48">
         <v>5.5E-2</v>
       </c>
-      <c r="J87" s="88">
+      <c r="J87" s="48">
         <v>1.48</v>
       </c>
-      <c r="K87" s="84">
-        <f t="shared" si="9"/>
+      <c r="K87" s="48">
+        <f t="shared" si="13"/>
         <v>0.25326370757180156</v>
       </c>
-      <c r="L87" s="84">
-        <f t="shared" si="10"/>
+      <c r="L87" s="48">
+        <f t="shared" si="14"/>
         <v>0.62663185378590069</v>
       </c>
-      <c r="M87" s="89">
-        <f t="shared" si="11"/>
+      <c r="M87" s="52">
+        <f t="shared" si="15"/>
         <v>0.38642297650130547</v>
       </c>
     </row>
-    <row r="88" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D88" s="10">
         <v>1.3</v>
       </c>
-      <c r="E88" s="84">
-        <f>$H$14*$D88</f>
+      <c r="E88" s="48">
+        <f t="shared" si="12"/>
         <v>1814.6455489643085</v>
       </c>
-      <c r="F88" s="88">
+      <c r="F88" s="48">
         <v>1.01</v>
       </c>
-      <c r="G88" s="88">
+      <c r="G88" s="48">
         <v>3.29</v>
       </c>
-      <c r="H88" s="88">
+      <c r="H88" s="48">
         <v>2.19</v>
       </c>
-      <c r="I88" s="88">
+      <c r="I88" s="48">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="J88" s="88">
+      <c r="J88" s="48">
         <v>1.2</v>
       </c>
-      <c r="K88" s="84">
-        <f t="shared" si="9"/>
+      <c r="K88" s="48">
+        <f t="shared" si="13"/>
         <v>0.30699088145896658</v>
       </c>
-      <c r="L88" s="84">
-        <f t="shared" si="10"/>
+      <c r="L88" s="48">
+        <f t="shared" si="14"/>
         <v>0.66565349544072949</v>
       </c>
-      <c r="M88" s="89">
-        <f t="shared" si="11"/>
+      <c r="M88" s="52">
+        <f t="shared" si="15"/>
         <v>0.36474164133738601</v>
       </c>
     </row>
-    <row r="89" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="D89" s="10">
         <v>1.5</v>
       </c>
-      <c r="E89" s="84">
-        <f>$H$14*$D89</f>
+      <c r="E89" s="48">
+        <f t="shared" si="12"/>
         <v>2093.82178726651</v>
       </c>
-      <c r="F89" s="88">
+      <c r="F89" s="48">
         <v>1.07</v>
       </c>
-      <c r="G89" s="88">
+      <c r="G89" s="48">
         <v>2.33</v>
       </c>
-      <c r="H89" s="88">
+      <c r="H89" s="48">
         <v>1.82</v>
       </c>
-      <c r="I89" s="88">
+      <c r="I89" s="48">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="J89" s="88">
+      <c r="J89" s="48">
         <v>0.73</v>
       </c>
-      <c r="K89" s="84">
-        <f t="shared" si="9"/>
+      <c r="K89" s="48">
+        <f t="shared" si="13"/>
         <v>0.45922746781115881</v>
       </c>
-      <c r="L89" s="84">
-        <f t="shared" si="10"/>
+      <c r="L89" s="48">
+        <f t="shared" si="14"/>
         <v>0.7811158798283262</v>
       </c>
-      <c r="M89" s="89">
-        <f t="shared" si="11"/>
+      <c r="M89" s="52">
+        <f t="shared" si="15"/>
         <v>0.31330472103004292</v>
       </c>
     </row>
-    <row r="90" spans="4:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:13" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D90" s="11">
         <v>1.7</v>
       </c>
-      <c r="E90" s="85">
-        <f>$H$14*$D90</f>
+      <c r="E90" s="49">
+        <f t="shared" si="12"/>
         <v>2372.998025568711</v>
       </c>
-      <c r="F90" s="85">
+      <c r="F90" s="49">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G90" s="85">
+      <c r="G90" s="49">
         <v>1.79</v>
       </c>
-      <c r="H90" s="85">
+      <c r="H90" s="49">
         <v>1.64</v>
       </c>
-      <c r="I90" s="85">
+      <c r="I90" s="49">
         <v>3.1E-2</v>
       </c>
-      <c r="J90" s="85">
+      <c r="J90" s="49">
         <v>0.49</v>
       </c>
-      <c r="K90" s="85">
-        <f t="shared" si="9"/>
+      <c r="K90" s="49">
+        <f t="shared" si="13"/>
         <v>0.62011173184357549</v>
       </c>
-      <c r="L90" s="85">
-        <f t="shared" si="10"/>
+      <c r="L90" s="49">
+        <f t="shared" si="14"/>
         <v>0.91620111731843568</v>
       </c>
-      <c r="M90" s="90">
-        <f t="shared" si="11"/>
+      <c r="M90" s="53">
+        <f t="shared" si="15"/>
         <v>0.27374301675977653</v>
       </c>
     </row>
@@ -15116,7 +15150,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ELM/ELM_Mereni.xlsx
+++ b/ELM/ELM_Mereni.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\ELM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School\ELM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F369AF4E-C8E5-4697-94EE-57C967E11513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F2FBBE-5479-4D43-8A99-5B335BCD8902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{0E831311-E828-46E0-A9F7-A0C3C1A0662F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{0E831311-E828-46E0-A9F7-A0C3C1A0662F}"/>
   </bookViews>
   <sheets>
     <sheet name="Pohor1" sheetId="4" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="127">
   <si>
     <t>Pristroje</t>
   </si>
@@ -849,6 +849,148 @@
       <t xml:space="preserve"> [kΩ]</t>
     </r>
   </si>
+  <si>
+    <t>Dekáda</t>
+  </si>
+  <si>
+    <t>Přístroje</t>
+  </si>
+  <si>
+    <t>Inv. číslo</t>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [V]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [V]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4pp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [V]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [V]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [V]</t>
+    </r>
+  </si>
+  <si>
+    <t>Ost. údaj</t>
+  </si>
 </sst>
 </file>
 
@@ -858,7 +1000,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -910,6 +1052,13 @@
     </font>
     <font>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -1313,7 +1462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1423,6 +1572,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1442,12 +1597,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1497,6 +1646,19 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11397,7 +11559,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -11424,7 +11586,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -11605,12 +11767,12 @@
       <c r="G12" s="62"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="71"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="73"/>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9"/>
@@ -11680,10 +11842,10 @@
     </row>
     <row r="19" spans="2:8" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:8" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="68"/>
+      <c r="C20" s="70"/>
     </row>
     <row r="21" spans="2:8" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
@@ -11708,12 +11870,12 @@
       <c r="G26" s="62"/>
     </row>
     <row r="27" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="69"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="71"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="73"/>
     </row>
     <row r="28" spans="2:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
@@ -11765,14 +11927,14 @@
     </row>
     <row r="31" spans="2:8" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:8" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="68"/>
-      <c r="F32" s="67" t="s">
+      <c r="C32" s="70"/>
+      <c r="F32" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="68"/>
+      <c r="G32" s="70"/>
       <c r="H32" t="s">
         <v>35</v>
       </c>
@@ -11806,12 +11968,12 @@
       <c r="G38" s="62"/>
     </row>
     <row r="39" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="69"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="71"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="73"/>
     </row>
     <row r="40" spans="2:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="9"/>
@@ -11857,16 +12019,16 @@
     </row>
     <row r="45" spans="2:7" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="2:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="67" t="s">
+      <c r="B46" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="68"/>
-      <c r="F46" s="72" t="s">
+      <c r="C46" s="70"/>
+      <c r="F46" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="G46" s="73"/>
-    </row>
-    <row r="47" spans="2:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G46" s="75"/>
+    </row>
+    <row r="47" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B47" s="12" t="s">
         <v>18</v>
       </c>
@@ -11876,23 +12038,23 @@
       <c r="D47" t="s">
         <v>29</v>
       </c>
-      <c r="F47" s="74" t="s">
+      <c r="F47" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="G47" s="75"/>
+      <c r="G47" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="B12:G13"/>
+    <mergeCell ref="F46:G46"/>
     <mergeCell ref="F47:G47"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="B38:G39"/>
     <mergeCell ref="B26:G27"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="B12:G13"/>
-    <mergeCell ref="F46:G46"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -12346,7 +12508,7 @@
   <dimension ref="B1:P30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:P4"/>
+      <selection activeCell="K8" sqref="K8:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12426,12 +12588,12 @@
       <c r="O8" s="62"/>
     </row>
     <row r="9" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="69"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="73"/>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
       <c r="K9" s="63"/>
@@ -12601,12 +12763,12 @@
       <c r="H16" s="62"/>
     </row>
     <row r="17" spans="3:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="69"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="73"/>
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
       <c r="K17" s="30"/>
@@ -12718,12 +12880,12 @@
       <c r="H24" s="62"/>
     </row>
     <row r="25" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="69"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="73"/>
     </row>
     <row r="26" spans="3:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="22" t="s">
@@ -12832,8 +12994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA44BD41-FBD2-4B16-A1A5-7CDDFC74A3B8}">
   <dimension ref="D1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="P73" sqref="P73"/>
+    <sheetView topLeftCell="B11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13034,16 +13196,16 @@
       <c r="M18" s="62"/>
     </row>
     <row r="19" spans="4:13" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="69"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="73"/>
     </row>
     <row r="20" spans="4:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D20" s="51" t="s">
@@ -13562,16 +13724,16 @@
       <c r="M37" s="62"/>
     </row>
     <row r="38" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="69"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
-      <c r="K38" s="70"/>
-      <c r="L38" s="70"/>
-      <c r="M38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="73"/>
     </row>
     <row r="39" spans="4:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D39" s="51" t="s">
@@ -14090,16 +14252,16 @@
       <c r="M56" s="62"/>
     </row>
     <row r="57" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="69"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="70"/>
-      <c r="I57" s="70"/>
-      <c r="J57" s="70"/>
-      <c r="K57" s="70"/>
-      <c r="L57" s="70"/>
-      <c r="M57" s="71"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="72"/>
+      <c r="I57" s="72"/>
+      <c r="J57" s="72"/>
+      <c r="K57" s="72"/>
+      <c r="L57" s="72"/>
+      <c r="M57" s="73"/>
     </row>
     <row r="58" spans="4:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D58" s="51" t="s">
@@ -14133,7 +14295,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D59" s="17">
         <v>0.3</v>
       </c>
@@ -14169,7 +14331,7 @@
         <v>1.5128205128205128</v>
       </c>
     </row>
-    <row r="60" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D60" s="10">
         <v>0.5</v>
       </c>
@@ -14205,7 +14367,7 @@
         <v>0.90566037735849048</v>
       </c>
     </row>
-    <row r="61" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D61" s="10">
         <v>0.7</v>
       </c>
@@ -14241,7 +14403,7 @@
         <v>0.66449511400651473</v>
       </c>
     </row>
-    <row r="62" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D62" s="10">
         <v>0.8</v>
       </c>
@@ -14277,7 +14439,7 @@
         <v>0.58278145695364236</v>
       </c>
     </row>
-    <row r="63" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D63" s="10">
         <v>0.9</v>
       </c>
@@ -14313,7 +14475,7 @@
         <v>0.5220125786163522</v>
       </c>
     </row>
-    <row r="64" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D64" s="10">
         <v>0.95</v>
       </c>
@@ -14349,7 +14511,7 @@
         <v>0.48908296943231439</v>
       </c>
     </row>
-    <row r="65" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D65" s="10">
         <v>1</v>
       </c>
@@ -14385,7 +14547,7 @@
         <v>0.47633136094674561</v>
       </c>
     </row>
-    <row r="66" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D66" s="10">
         <v>1.05</v>
       </c>
@@ -14421,7 +14583,7 @@
         <v>0.44158075601374563</v>
       </c>
     </row>
-    <row r="67" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D67" s="10">
         <v>1.1000000000000001</v>
       </c>
@@ -14457,7 +14619,7 @@
         <v>0.42829827915869984</v>
       </c>
     </row>
-    <row r="68" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D68" s="10">
         <v>1.2</v>
       </c>
@@ -14493,7 +14655,7 @@
         <v>0.40769230769230774</v>
       </c>
     </row>
-    <row r="69" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D69" s="10">
         <v>1.3</v>
       </c>
@@ -14529,7 +14691,7 @@
         <v>0.35761589403973509</v>
       </c>
     </row>
-    <row r="70" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D70" s="10">
         <v>1.5</v>
       </c>
@@ -14565,7 +14727,7 @@
         <v>0.32173913043478264</v>
       </c>
     </row>
-    <row r="71" spans="4:13" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D71" s="11">
         <v>1.7</v>
       </c>
@@ -14601,7 +14763,7 @@
         <v>0.2774566473988439</v>
       </c>
     </row>
-    <row r="74" spans="4:13" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="75" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D75" s="60" t="str">
         <f>I14</f>
@@ -14618,16 +14780,16 @@
       <c r="M75" s="62"/>
     </row>
     <row r="76" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D76" s="69"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="70"/>
-      <c r="G76" s="70"/>
-      <c r="H76" s="70"/>
-      <c r="I76" s="70"/>
-      <c r="J76" s="70"/>
-      <c r="K76" s="70"/>
-      <c r="L76" s="70"/>
-      <c r="M76" s="71"/>
+      <c r="D76" s="71"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="72"/>
+      <c r="H76" s="72"/>
+      <c r="I76" s="72"/>
+      <c r="J76" s="72"/>
+      <c r="K76" s="72"/>
+      <c r="L76" s="72"/>
+      <c r="M76" s="73"/>
     </row>
     <row r="77" spans="4:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D77" s="51" t="s">
@@ -14661,7 +14823,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D78" s="17">
         <v>0.3</v>
       </c>
@@ -14697,7 +14859,7 @@
         <v>1.5394736842105261</v>
       </c>
     </row>
-    <row r="79" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D79" s="10">
         <v>0.5</v>
       </c>
@@ -14733,7 +14895,7 @@
         <v>0.91025641025641013</v>
       </c>
     </row>
-    <row r="80" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D80" s="10">
         <v>0.7</v>
       </c>
@@ -14769,7 +14931,7 @@
         <v>0.65146579804560267</v>
       </c>
     </row>
-    <row r="81" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D81" s="10">
         <v>0.8</v>
       </c>
@@ -14805,7 +14967,7 @@
         <v>0.55394190871369287</v>
       </c>
     </row>
-    <row r="82" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D82" s="10">
         <v>0.9</v>
       </c>
@@ -14841,7 +15003,7 @@
         <v>0.53171641791044777</v>
       </c>
     </row>
-    <row r="83" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D83" s="10">
         <v>0.95</v>
       </c>
@@ -14877,7 +15039,7 @@
         <v>0.4975041597337771</v>
       </c>
     </row>
-    <row r="84" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D84" s="10">
         <v>1</v>
       </c>
@@ -14913,7 +15075,7 @@
         <v>0.47524752475247528</v>
       </c>
     </row>
-    <row r="85" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D85" s="10">
         <v>1.05</v>
       </c>
@@ -14949,7 +15111,7 @@
         <v>0.45407279029462744</v>
       </c>
     </row>
-    <row r="86" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D86" s="10">
         <v>1.1000000000000001</v>
       </c>
@@ -14985,7 +15147,7 @@
         <v>0.4358490566037736</v>
       </c>
     </row>
-    <row r="87" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D87" s="10">
         <v>1.2</v>
       </c>
@@ -15021,7 +15183,7 @@
         <v>0.38642297650130547</v>
       </c>
     </row>
-    <row r="88" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D88" s="10">
         <v>1.3</v>
       </c>
@@ -15057,7 +15219,7 @@
         <v>0.36474164133738601</v>
       </c>
     </row>
-    <row r="89" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D89" s="10">
         <v>1.5</v>
       </c>
@@ -15093,7 +15255,7 @@
         <v>0.31330472103004292</v>
       </c>
     </row>
-    <row r="90" spans="4:13" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D90" s="11">
         <v>1.7</v>
       </c>
@@ -15146,12 +15308,358 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA9764A-BE0D-40A4-90DE-3D4B5ED9DA7C}">
-  <dimension ref="A1"/>
+  <dimension ref="C2:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C3" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="86"/>
+    </row>
+    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C4" s="87"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="88"/>
+    </row>
+    <row r="5" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="91"/>
+    </row>
+    <row r="8" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D9" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="62"/>
+      <c r="L9" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="62"/>
+    </row>
+    <row r="10" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="71"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="73"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="73"/>
+    </row>
+    <row r="11" spans="3:17" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D11" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="98" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D12" s="10">
+        <v>50</v>
+      </c>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="52"/>
+      <c r="L12" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D13" s="10">
+        <v>100</v>
+      </c>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="52"/>
+      <c r="L13" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D14" s="10">
+        <v>200</v>
+      </c>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="52"/>
+      <c r="L14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D15" s="96">
+        <v>500</v>
+      </c>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="52"/>
+      <c r="L15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="96">
+        <v>1000</v>
+      </c>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="52"/>
+      <c r="L16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D17" s="96">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="52"/>
+    </row>
+    <row r="18" spans="4:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="96">
+        <v>5000</v>
+      </c>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+    </row>
+    <row r="19" spans="4:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="96">
+        <v>10000</v>
+      </c>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D20" s="96">
+        <v>20000</v>
+      </c>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+    </row>
+    <row r="21" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="97">
+        <v>50000</v>
+      </c>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+    </row>
+    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+    </row>
+    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+    </row>
+    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="J28" s="95"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+    </row>
+    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+    </row>
+    <row r="31" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+    </row>
+    <row r="32" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="J32" s="95"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:Q5"/>
+    <mergeCell ref="L9:P10"/>
+    <mergeCell ref="D9:I10"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ELM/ELM_Mereni.xlsx
+++ b/ELM/ELM_Mereni.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School\ELM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F2FBBE-5479-4D43-8A99-5B335BCD8902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB1DE28-FAA0-4E4A-BB7E-3E09EF00C0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{0E831311-E828-46E0-A9F7-A0C3C1A0662F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{0E831311-E828-46E0-A9F7-A0C3C1A0662F}"/>
   </bookViews>
   <sheets>
     <sheet name="Pohor1" sheetId="4" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="137">
   <si>
     <t>Pristroje</t>
   </si>
@@ -991,6 +991,36 @@
   <si>
     <t>Ost. údaj</t>
   </si>
+  <si>
+    <t>Přesnost měřících přístrojů</t>
+  </si>
+  <si>
+    <t>Sinusoida</t>
+  </si>
+  <si>
+    <t>Obdelník</t>
+  </si>
+  <si>
+    <t>Pila</t>
+  </si>
+  <si>
+    <t>D6787</t>
+  </si>
+  <si>
+    <t>AEs788/1</t>
+  </si>
+  <si>
+    <t>Osciloskop</t>
+  </si>
+  <si>
+    <t>ES1 1066</t>
+  </si>
+  <si>
+    <t>600V</t>
+  </si>
+  <si>
+    <t>200Mhz</t>
+  </si>
 </sst>
 </file>
 
@@ -1000,7 +1030,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1052,13 +1082,6 @@
     </font>
     <font>
       <sz val="22"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -1462,7 +1485,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1548,6 +1571,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1572,12 +1598,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1597,6 +1617,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1648,18 +1674,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4427,7 +4451,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-GB"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10871,73 +10895,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="63"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
       <c r="L5" t="s">
         <v>95</v>
       </c>
@@ -11042,17 +11066,17 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
@@ -11068,15 +11092,15 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
@@ -11258,28 +11282,28 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
     </row>
     <row r="20" spans="1:9" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -11434,22 +11458,22 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="66"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -11682,20 +11706,20 @@
   <sheetData>
     <row r="1" spans="2:7" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="65"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="66"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -11757,22 +11781,22 @@
     </row>
     <row r="11" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="63"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="71"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="73"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="72"/>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9"/>
@@ -11842,10 +11866,10 @@
     </row>
     <row r="19" spans="2:8" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:8" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="70"/>
+      <c r="C20" s="69"/>
     </row>
     <row r="21" spans="2:8" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
@@ -11860,22 +11884,22 @@
     </row>
     <row r="25" spans="2:8" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="63"/>
     </row>
     <row r="27" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="71"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="73"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="72"/>
     </row>
     <row r="28" spans="2:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
@@ -11927,14 +11951,14 @@
     </row>
     <row r="31" spans="2:8" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:8" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="70"/>
-      <c r="F32" s="69" t="s">
+      <c r="C32" s="69"/>
+      <c r="F32" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="70"/>
+      <c r="G32" s="69"/>
       <c r="H32" t="s">
         <v>35</v>
       </c>
@@ -11958,22 +11982,22 @@
     </row>
     <row r="37" spans="2:7" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="60" t="s">
+      <c r="B38" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="63"/>
     </row>
     <row r="39" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="71"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="73"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="72"/>
     </row>
     <row r="40" spans="2:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="9"/>
@@ -12019,14 +12043,14 @@
     </row>
     <row r="45" spans="2:7" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="2:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="69" t="s">
+      <c r="B46" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="70"/>
-      <c r="F46" s="74" t="s">
+      <c r="C46" s="69"/>
+      <c r="F46" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="G46" s="75"/>
+      <c r="G46" s="74"/>
     </row>
     <row r="47" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B47" s="12" t="s">
@@ -12038,23 +12062,23 @@
       <c r="D47" t="s">
         <v>29</v>
       </c>
-      <c r="F47" s="67" t="s">
+      <c r="F47" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="G47" s="68"/>
+      <c r="G47" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B38:G39"/>
+    <mergeCell ref="B26:G27"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="B12:G13"/>
     <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B38:G39"/>
-    <mergeCell ref="B26:G27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -12077,69 +12101,69 @@
   <sheetData>
     <row r="1" spans="2:22" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="78"/>
-      <c r="R2" s="60" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="79"/>
+      <c r="R2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="63"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="79"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="81"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="65"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="82"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="66"/>
     </row>
     <row r="4" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="82"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="84"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="85"/>
       <c r="R4" s="27" t="s">
         <v>1</v>
       </c>
@@ -12202,40 +12226,40 @@
       <c r="V7" s="7"/>
     </row>
     <row r="8" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="63"/>
     </row>
     <row r="9" spans="2:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="63"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="65"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="66"/>
     </row>
     <row r="10" spans="2:22" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="22" t="s">
@@ -12515,92 +12539,92 @@
   <sheetData>
     <row r="1" spans="2:16" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="79"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="79"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="81"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="82"/>
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="82"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="84"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="85"/>
     </row>
     <row r="7" spans="2:16" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="63"/>
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
-      <c r="K8" s="60" t="s">
+      <c r="K8" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="63"/>
     </row>
     <row r="9" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="71"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="73"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="72"/>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="65"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="66"/>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="22" t="s">
@@ -12753,22 +12777,22 @@
     </row>
     <row r="15" spans="2:16" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="63"/>
     </row>
     <row r="17" spans="3:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="71"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="73"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="72"/>
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
       <c r="K17" s="30"/>
@@ -12870,22 +12894,22 @@
       <c r="H23" s="31"/>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="63"/>
     </row>
     <row r="25" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="71"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="73"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="72"/>
     </row>
     <row r="26" spans="3:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="22" t="s">
@@ -12994,7 +13018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA44BD41-FBD2-4B16-A1A5-7CDDFC74A3B8}">
   <dimension ref="D1:R90"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D18" sqref="D18:M32"/>
     </sheetView>
   </sheetViews>
@@ -13002,77 +13026,77 @@
   <sheetData>
     <row r="1" spans="4:18" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="4:18" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="87"/>
     </row>
     <row r="3" spans="4:18" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="87"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="89"/>
     </row>
     <row r="4" spans="4:18" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="89"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="91"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="92"/>
     </row>
     <row r="5" spans="4:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="4:18" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="63"/>
     </row>
     <row r="9" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="63"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="66"/>
     </row>
     <row r="10" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="47" t="s">
@@ -13181,31 +13205,31 @@
     <row r="16" spans="4:18" ht="13.9" x14ac:dyDescent="0.25"/>
     <row r="17" spans="4:13" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="4:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="60" t="str">
+      <c r="D18" s="61" t="str">
         <f>I11</f>
         <v>David</v>
       </c>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="63"/>
     </row>
     <row r="19" spans="4:13" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="71"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="73"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
     </row>
     <row r="20" spans="4:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D20" s="51" t="s">
@@ -13709,31 +13733,31 @@
     </row>
     <row r="36" spans="4:13" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D37" s="60" t="str">
+      <c r="D37" s="61" t="str">
         <f>I12</f>
         <v>Adam</v>
       </c>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="63"/>
     </row>
     <row r="38" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="71"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="73"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="72"/>
     </row>
     <row r="39" spans="4:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D39" s="51" t="s">
@@ -13767,7 +13791,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D40" s="17">
         <v>0.3</v>
       </c>
@@ -13803,7 +13827,7 @@
         <v>1.5733333333333333</v>
       </c>
     </row>
-    <row r="41" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D41" s="10">
         <v>0.5</v>
       </c>
@@ -13839,7 +13863,7 @@
         <v>0.96644295302013417</v>
       </c>
     </row>
-    <row r="42" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D42" s="10">
         <v>0.7</v>
       </c>
@@ -13875,7 +13899,7 @@
         <v>0.70307167235494883</v>
       </c>
     </row>
-    <row r="43" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D43" s="10">
         <v>0.8</v>
       </c>
@@ -13911,7 +13935,7 @@
         <v>0.63132530120481922</v>
       </c>
     </row>
-    <row r="44" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D44" s="10">
         <v>0.9</v>
       </c>
@@ -13947,7 +13971,7 @@
         <v>0.557037037037037</v>
       </c>
     </row>
-    <row r="45" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D45" s="10">
         <v>0.95</v>
       </c>
@@ -13983,7 +14007,7 @@
         <v>0.52692307692307694</v>
       </c>
     </row>
-    <row r="46" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D46" s="10">
         <v>1</v>
       </c>
@@ -14019,7 +14043,7 @@
         <v>0.51150895140664965</v>
       </c>
     </row>
-    <row r="47" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D47" s="10">
         <v>1.05</v>
       </c>
@@ -14055,7 +14079,7 @@
         <v>0.48801128349788436</v>
       </c>
     </row>
-    <row r="48" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D48" s="10">
         <v>1.1000000000000001</v>
       </c>
@@ -14091,7 +14115,7 @@
         <v>0.47151898734177211</v>
       </c>
     </row>
-    <row r="49" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D49" s="10">
         <v>1.2</v>
       </c>
@@ -14127,7 +14151,7 @@
         <v>0.43141592920353983</v>
       </c>
     </row>
-    <row r="50" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D50" s="10">
         <v>1.3</v>
       </c>
@@ -14163,7 +14187,7 @@
         <v>0.40289855072463765</v>
       </c>
     </row>
-    <row r="51" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D51" s="10">
         <v>1.5</v>
       </c>
@@ -14199,7 +14223,7 @@
         <v>0.35950413223140498</v>
       </c>
     </row>
-    <row r="52" spans="4:13" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D52" s="11">
         <v>1.7</v>
       </c>
@@ -14235,33 +14259,33 @@
         <v>0.32258064516129031</v>
       </c>
     </row>
-    <row r="55" spans="4:13" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D56" s="60" t="str">
+      <c r="D56" s="61" t="str">
         <f>I13</f>
         <v>Jirka</v>
       </c>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="61"/>
-      <c r="I56" s="61"/>
-      <c r="J56" s="61"/>
-      <c r="K56" s="61"/>
-      <c r="L56" s="61"/>
-      <c r="M56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="63"/>
     </row>
     <row r="57" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="71"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="72"/>
-      <c r="G57" s="72"/>
-      <c r="H57" s="72"/>
-      <c r="I57" s="72"/>
-      <c r="J57" s="72"/>
-      <c r="K57" s="72"/>
-      <c r="L57" s="72"/>
-      <c r="M57" s="73"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="71"/>
+      <c r="I57" s="71"/>
+      <c r="J57" s="71"/>
+      <c r="K57" s="71"/>
+      <c r="L57" s="71"/>
+      <c r="M57" s="72"/>
     </row>
     <row r="58" spans="4:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D58" s="51" t="s">
@@ -14765,31 +14789,31 @@
     </row>
     <row r="74" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="75" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D75" s="60" t="str">
+      <c r="D75" s="61" t="str">
         <f>I14</f>
         <v>Ondra</v>
       </c>
-      <c r="E75" s="61"/>
-      <c r="F75" s="61"/>
-      <c r="G75" s="61"/>
-      <c r="H75" s="61"/>
-      <c r="I75" s="61"/>
-      <c r="J75" s="61"/>
-      <c r="K75" s="61"/>
-      <c r="L75" s="61"/>
-      <c r="M75" s="62"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="62"/>
+      <c r="I75" s="62"/>
+      <c r="J75" s="62"/>
+      <c r="K75" s="62"/>
+      <c r="L75" s="62"/>
+      <c r="M75" s="63"/>
     </row>
     <row r="76" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D76" s="71"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="72"/>
-      <c r="G76" s="72"/>
-      <c r="H76" s="72"/>
-      <c r="I76" s="72"/>
-      <c r="J76" s="72"/>
-      <c r="K76" s="72"/>
-      <c r="L76" s="72"/>
-      <c r="M76" s="73"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="71"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="71"/>
+      <c r="H76" s="71"/>
+      <c r="I76" s="71"/>
+      <c r="J76" s="71"/>
+      <c r="K76" s="71"/>
+      <c r="L76" s="71"/>
+      <c r="M76" s="72"/>
     </row>
     <row r="77" spans="4:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D77" s="51" t="s">
@@ -15308,104 +15332,182 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA9764A-BE0D-40A4-90DE-3D4B5ED9DA7C}">
-  <dimension ref="C2:Q32"/>
+  <dimension ref="C2:X69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C3" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="86"/>
-    </row>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C4" s="87"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="88"/>
-    </row>
-    <row r="5" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="91"/>
-    </row>
-    <row r="8" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D9" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="62"/>
-      <c r="L9" s="60" t="s">
+    <row r="2" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C3" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="87"/>
+      <c r="T3" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="62"/>
-    </row>
-    <row r="10" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="71"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="73"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="73"/>
-    </row>
-    <row r="11" spans="3:17" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="63"/>
+    </row>
+    <row r="4" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="88"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="89"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="72"/>
+    </row>
+    <row r="5" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="92"/>
+      <c r="T5" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" s="99" t="s">
+        <v>120</v>
+      </c>
+      <c r="V5" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="W5" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="T6" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="V6" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="W6" s="95"/>
+      <c r="X6" s="5"/>
+    </row>
+    <row r="7" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="T7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="V7" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="W7" s="97" t="s">
+        <v>135</v>
+      </c>
+      <c r="X7" s="5"/>
+    </row>
+    <row r="8" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U8" s="4"/>
+      <c r="V8" s="95" t="s">
+        <v>69</v>
+      </c>
+      <c r="W8" s="95"/>
+      <c r="X8" s="5"/>
+    </row>
+    <row r="9" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D9" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="63"/>
+      <c r="T9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="4"/>
+      <c r="V9" s="95" t="s">
+        <v>69</v>
+      </c>
+      <c r="W9" s="95"/>
+      <c r="X9" s="5"/>
+    </row>
+    <row r="10" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="70"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="72"/>
+      <c r="T10" s="98" t="s">
+        <v>133</v>
+      </c>
+      <c r="U10" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="W10" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="X10" s="7"/>
+    </row>
+    <row r="11" spans="3:24" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D11" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="98" t="s">
+      <c r="E11" s="50" t="s">
         <v>125</v>
       </c>
       <c r="F11" s="50" t="s">
@@ -15420,244 +15522,802 @@
       <c r="I11" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="L11" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="M11" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="N11" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="O11" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D12" s="10">
         <v>50</v>
       </c>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
+      <c r="E12" s="48">
+        <v>3</v>
+      </c>
+      <c r="F12" s="48">
+        <v>3.0579999999999998</v>
+      </c>
+      <c r="G12" s="48">
+        <v>3</v>
+      </c>
+      <c r="H12" s="48">
+        <v>9.0399999999999991</v>
+      </c>
       <c r="I12" s="52"/>
-      <c r="L12" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="5"/>
-    </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D13" s="10">
         <v>100</v>
       </c>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
+      <c r="E13" s="48">
+        <v>3</v>
+      </c>
+      <c r="F13" s="48">
+        <v>3.056</v>
+      </c>
+      <c r="G13" s="48">
+        <v>3</v>
+      </c>
+      <c r="H13" s="48">
+        <v>9.0399999999999991</v>
+      </c>
       <c r="I13" s="52"/>
-      <c r="L13" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="5"/>
-    </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D14" s="10">
         <v>200</v>
       </c>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
+      <c r="E14" s="48">
+        <v>3</v>
+      </c>
+      <c r="F14" s="48">
+        <v>3.056</v>
+      </c>
+      <c r="G14" s="48">
+        <v>3</v>
+      </c>
+      <c r="H14" s="48">
+        <v>9.0399999999999991</v>
+      </c>
       <c r="I14" s="52"/>
-      <c r="L14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="5"/>
-    </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D15" s="96">
+    </row>
+    <row r="15" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D15" s="10">
         <v>500</v>
       </c>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
+      <c r="E15" s="48">
+        <v>3</v>
+      </c>
+      <c r="F15" s="48">
+        <v>3.0470000000000002</v>
+      </c>
+      <c r="G15" s="48">
+        <v>3</v>
+      </c>
+      <c r="H15" s="48">
+        <v>9.0399999999999991</v>
+      </c>
       <c r="I15" s="52"/>
-      <c r="L15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="5"/>
-    </row>
-    <row r="16" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="96">
+    </row>
+    <row r="16" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D16" s="10">
         <v>1000</v>
       </c>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
+      <c r="E16" s="48">
+        <v>3</v>
+      </c>
+      <c r="F16" s="48">
+        <v>3.0339999999999998</v>
+      </c>
+      <c r="G16" s="48">
+        <v>3</v>
+      </c>
+      <c r="H16" s="48">
+        <v>9.0399999999999991</v>
+      </c>
       <c r="I16" s="52"/>
-      <c r="L16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="7"/>
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D17" s="96">
+      <c r="D17" s="10">
         <v>2000</v>
       </c>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
+      <c r="E17" s="48">
+        <v>3</v>
+      </c>
+      <c r="F17" s="48">
+        <v>2.9649999999999999</v>
+      </c>
+      <c r="G17" s="48">
+        <v>3</v>
+      </c>
+      <c r="H17" s="48">
+        <v>8.9600000000000009</v>
+      </c>
       <c r="I17" s="52"/>
     </row>
     <row r="18" spans="4:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="96">
+      <c r="D18" s="10">
         <v>5000</v>
       </c>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
+      <c r="E18" s="48">
+        <v>3</v>
+      </c>
+      <c r="F18" s="48">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G18" s="48">
+        <v>3</v>
+      </c>
+      <c r="H18" s="48">
+        <v>8.9600000000000009</v>
+      </c>
       <c r="I18" s="52"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
     </row>
     <row r="19" spans="4:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="96">
+      <c r="D19" s="10">
         <v>10000</v>
       </c>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
+      <c r="E19" s="48">
+        <v>2.95</v>
+      </c>
+      <c r="F19" s="48">
+        <v>1.63</v>
+      </c>
+      <c r="G19" s="48">
+        <v>3</v>
+      </c>
+      <c r="H19" s="48">
+        <v>8.9600000000000009</v>
+      </c>
       <c r="I19" s="52"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
     </row>
     <row r="20" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D20" s="96">
+      <c r="D20" s="10">
         <v>20000</v>
       </c>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
+      <c r="E20" s="48">
+        <v>2.5</v>
+      </c>
+      <c r="F20" s="48">
+        <v>0.86</v>
+      </c>
+      <c r="G20" s="48">
+        <v>3</v>
+      </c>
+      <c r="H20" s="48">
+        <v>8.9600000000000009</v>
+      </c>
       <c r="I20" s="52"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
     </row>
     <row r="21" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="97">
+      <c r="D21" s="11">
         <v>50000</v>
       </c>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
+      <c r="E21" s="49">
+        <v>2.8</v>
+      </c>
+      <c r="F21" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="49">
+        <v>3</v>
+      </c>
+      <c r="H21" s="49">
+        <v>8.9600000000000009</v>
+      </c>
       <c r="I21" s="53"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
     </row>
     <row r="22" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
     </row>
     <row r="23" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-    </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+    </row>
+    <row r="24" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
     </row>
     <row r="25" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-    </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="J26" s="95"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
-    </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
+      <c r="D25" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+    </row>
+    <row r="26" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="70"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+    </row>
+    <row r="27" spans="4:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D27" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="I27" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="95"/>
+      <c r="D28" s="10">
+        <v>50</v>
+      </c>
+      <c r="E28" s="48">
+        <v>3.1</v>
+      </c>
+      <c r="F28" s="48">
+        <v>2.99</v>
+      </c>
+      <c r="G28" s="48">
+        <v>3</v>
+      </c>
+      <c r="H28" s="48">
+        <v>6.24</v>
+      </c>
+      <c r="I28" s="52"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
+      <c r="D29" s="10">
+        <v>100</v>
+      </c>
+      <c r="E29" s="48">
+        <v>3.1</v>
+      </c>
+      <c r="F29" s="48">
+        <v>2.99</v>
+      </c>
+      <c r="G29" s="48">
+        <v>3</v>
+      </c>
+      <c r="H29" s="48">
+        <v>6.24</v>
+      </c>
+      <c r="I29" s="52"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
     </row>
     <row r="30" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
+      <c r="D30" s="10">
+        <v>200</v>
+      </c>
+      <c r="E30" s="48">
+        <v>3.1</v>
+      </c>
+      <c r="F30" s="48">
+        <v>2.97</v>
+      </c>
+      <c r="G30" s="48">
+        <v>3</v>
+      </c>
+      <c r="H30" s="48">
+        <v>6.28</v>
+      </c>
+      <c r="I30" s="52"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
     </row>
     <row r="31" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
+      <c r="D31" s="10">
+        <v>500</v>
+      </c>
+      <c r="E31" s="48">
+        <v>3.1</v>
+      </c>
+      <c r="F31" s="48">
+        <v>2.9</v>
+      </c>
+      <c r="G31" s="48">
+        <v>3</v>
+      </c>
+      <c r="H31" s="48">
+        <v>6.24</v>
+      </c>
+      <c r="I31" s="52"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
     </row>
     <row r="32" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="J32" s="95"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
+      <c r="D32" s="10">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="48">
+        <v>3.1</v>
+      </c>
+      <c r="F32" s="48">
+        <v>2.8</v>
+      </c>
+      <c r="G32" s="48">
+        <v>3</v>
+      </c>
+      <c r="H32" s="48">
+        <v>6.28</v>
+      </c>
+      <c r="I32" s="52"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="10">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="48">
+        <v>3.1</v>
+      </c>
+      <c r="F33" s="48">
+        <v>2.7</v>
+      </c>
+      <c r="G33" s="48">
+        <v>3</v>
+      </c>
+      <c r="H33" s="48">
+        <v>6.24</v>
+      </c>
+      <c r="I33" s="52"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="10">
+        <v>5000</v>
+      </c>
+      <c r="E34" s="48">
+        <v>3</v>
+      </c>
+      <c r="F34" s="48">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G34" s="48">
+        <v>3</v>
+      </c>
+      <c r="H34" s="48">
+        <v>6.24</v>
+      </c>
+      <c r="I34" s="52"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="10">
+        <v>10000</v>
+      </c>
+      <c r="E35" s="48">
+        <v>2.9</v>
+      </c>
+      <c r="F35" s="48">
+        <v>1.48</v>
+      </c>
+      <c r="G35" s="48">
+        <v>3</v>
+      </c>
+      <c r="H35" s="48">
+        <v>6.24</v>
+      </c>
+      <c r="I35" s="52"/>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D36" s="10">
+        <v>20000</v>
+      </c>
+      <c r="E36" s="48">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F36" s="48">
+        <v>0.8</v>
+      </c>
+      <c r="G36" s="48">
+        <v>3</v>
+      </c>
+      <c r="H36" s="48">
+        <v>6.24</v>
+      </c>
+      <c r="I36" s="52"/>
+    </row>
+    <row r="37" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="11">
+        <v>50000</v>
+      </c>
+      <c r="E37" s="49">
+        <v>1.7</v>
+      </c>
+      <c r="F37" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="G37" s="49">
+        <v>3</v>
+      </c>
+      <c r="H37" s="49">
+        <v>6.24</v>
+      </c>
+      <c r="I37" s="53"/>
+    </row>
+    <row r="40" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D41" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="63"/>
+    </row>
+    <row r="42" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="70"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="72"/>
+    </row>
+    <row r="43" spans="4:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D43" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="H43" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="I43" s="46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D44" s="10">
+        <v>50</v>
+      </c>
+      <c r="E44" s="96">
+        <v>3</v>
+      </c>
+      <c r="F44" s="96">
+        <v>3</v>
+      </c>
+      <c r="G44" s="96">
+        <v>3</v>
+      </c>
+      <c r="H44" s="96">
+        <v>10.64</v>
+      </c>
+      <c r="I44" s="52"/>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D45" s="10">
+        <v>100</v>
+      </c>
+      <c r="E45" s="96">
+        <v>2.95</v>
+      </c>
+      <c r="F45" s="96">
+        <v>3</v>
+      </c>
+      <c r="G45" s="96">
+        <v>3</v>
+      </c>
+      <c r="H45" s="96">
+        <v>10.64</v>
+      </c>
+      <c r="I45" s="52"/>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D46" s="10">
+        <v>200</v>
+      </c>
+      <c r="E46" s="96">
+        <v>2.9</v>
+      </c>
+      <c r="F46" s="96">
+        <v>3</v>
+      </c>
+      <c r="G46" s="96">
+        <v>3</v>
+      </c>
+      <c r="H46" s="96">
+        <v>10.72</v>
+      </c>
+      <c r="I46" s="52"/>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D47" s="10">
+        <v>500</v>
+      </c>
+      <c r="E47" s="96">
+        <v>2.9</v>
+      </c>
+      <c r="F47" s="96">
+        <v>3</v>
+      </c>
+      <c r="G47" s="96">
+        <v>3</v>
+      </c>
+      <c r="H47" s="96">
+        <v>10.72</v>
+      </c>
+      <c r="I47" s="52"/>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D48" s="10">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="96">
+        <v>2.95</v>
+      </c>
+      <c r="F48" s="96">
+        <v>3</v>
+      </c>
+      <c r="G48" s="96">
+        <v>3</v>
+      </c>
+      <c r="H48" s="96">
+        <v>10.72</v>
+      </c>
+      <c r="I48" s="52"/>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D49" s="10">
+        <v>2000</v>
+      </c>
+      <c r="E49" s="96">
+        <v>2.95</v>
+      </c>
+      <c r="F49" s="96">
+        <v>2.9</v>
+      </c>
+      <c r="G49" s="96">
+        <v>3</v>
+      </c>
+      <c r="H49" s="96">
+        <v>10.72</v>
+      </c>
+      <c r="I49" s="52"/>
+    </row>
+    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D50" s="10">
+        <v>5000</v>
+      </c>
+      <c r="E50" s="96">
+        <v>2.9</v>
+      </c>
+      <c r="F50" s="96">
+        <v>2.4</v>
+      </c>
+      <c r="G50" s="96">
+        <v>3</v>
+      </c>
+      <c r="H50" s="96">
+        <v>10.72</v>
+      </c>
+      <c r="I50" s="52"/>
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D51" s="10">
+        <v>10000</v>
+      </c>
+      <c r="E51" s="96">
+        <v>2.9</v>
+      </c>
+      <c r="F51" s="96">
+        <v>1.6</v>
+      </c>
+      <c r="G51" s="96">
+        <v>3</v>
+      </c>
+      <c r="H51" s="96">
+        <v>10.72</v>
+      </c>
+      <c r="I51" s="52"/>
+    </row>
+    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D52" s="10">
+        <v>20000</v>
+      </c>
+      <c r="E52" s="96">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F52" s="96">
+        <v>0.8</v>
+      </c>
+      <c r="G52" s="96">
+        <v>3</v>
+      </c>
+      <c r="H52" s="96">
+        <v>10.72</v>
+      </c>
+      <c r="I52" s="52"/>
+    </row>
+    <row r="53" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D53" s="11">
+        <v>50000</v>
+      </c>
+      <c r="E53" s="49">
+        <v>3.1</v>
+      </c>
+      <c r="F53" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="G53" s="49">
+        <v>3</v>
+      </c>
+      <c r="H53" s="49">
+        <v>10.72</v>
+      </c>
+      <c r="I53" s="53"/>
+    </row>
+    <row r="57" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="93"/>
+      <c r="E57" s="93"/>
+      <c r="F57" s="93"/>
+      <c r="G57" s="93"/>
+      <c r="H57" s="93"/>
+      <c r="I57" s="93"/>
+    </row>
+    <row r="58" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D58" s="93"/>
+      <c r="E58" s="93"/>
+      <c r="F58" s="93"/>
+      <c r="G58" s="93"/>
+      <c r="H58" s="93"/>
+      <c r="I58" s="93"/>
+    </row>
+    <row r="59" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D59" s="94"/>
+      <c r="E59" s="94"/>
+      <c r="F59" s="94"/>
+      <c r="G59" s="94"/>
+      <c r="H59" s="94"/>
+      <c r="I59" s="94"/>
+    </row>
+    <row r="60" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D60" s="95"/>
+      <c r="E60" s="96"/>
+      <c r="F60" s="96"/>
+      <c r="G60" s="96"/>
+      <c r="H60" s="96"/>
+      <c r="I60" s="96"/>
+    </row>
+    <row r="61" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D61" s="95"/>
+      <c r="E61" s="96"/>
+      <c r="F61" s="96"/>
+      <c r="G61" s="96"/>
+      <c r="H61" s="96"/>
+      <c r="I61" s="96"/>
+    </row>
+    <row r="62" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D62" s="95"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="96"/>
+      <c r="G62" s="96"/>
+      <c r="H62" s="96"/>
+      <c r="I62" s="96"/>
+    </row>
+    <row r="63" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D63" s="95"/>
+      <c r="E63" s="96"/>
+      <c r="F63" s="96"/>
+      <c r="G63" s="96"/>
+      <c r="H63" s="96"/>
+      <c r="I63" s="96"/>
+    </row>
+    <row r="64" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D64" s="95"/>
+      <c r="E64" s="96"/>
+      <c r="F64" s="96"/>
+      <c r="G64" s="96"/>
+      <c r="H64" s="96"/>
+      <c r="I64" s="96"/>
+    </row>
+    <row r="65" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D65" s="95"/>
+      <c r="E65" s="96"/>
+      <c r="F65" s="96"/>
+      <c r="G65" s="96"/>
+      <c r="H65" s="96"/>
+      <c r="I65" s="96"/>
+    </row>
+    <row r="66" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D66" s="95"/>
+      <c r="E66" s="96"/>
+      <c r="F66" s="96"/>
+      <c r="G66" s="96"/>
+      <c r="H66" s="96"/>
+      <c r="I66" s="96"/>
+    </row>
+    <row r="67" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D67" s="95"/>
+      <c r="E67" s="96"/>
+      <c r="F67" s="96"/>
+      <c r="G67" s="96"/>
+      <c r="H67" s="96"/>
+      <c r="I67" s="96"/>
+    </row>
+    <row r="68" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D68" s="95"/>
+      <c r="E68" s="96"/>
+      <c r="F68" s="96"/>
+      <c r="G68" s="96"/>
+      <c r="H68" s="96"/>
+      <c r="I68" s="96"/>
+    </row>
+    <row r="69" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D69" s="95"/>
+      <c r="E69" s="96"/>
+      <c r="F69" s="96"/>
+      <c r="G69" s="96"/>
+      <c r="H69" s="96"/>
+      <c r="I69" s="96"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="D57:I58"/>
     <mergeCell ref="C3:Q5"/>
-    <mergeCell ref="L9:P10"/>
+    <mergeCell ref="T3:X4"/>
     <mergeCell ref="D9:I10"/>
+    <mergeCell ref="D25:I26"/>
+    <mergeCell ref="D41:I42"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ELM/ELM_Mereni.xlsx
+++ b/ELM/ELM_Mereni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School\ELM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB1DE28-FAA0-4E4A-BB7E-3E09EF00C0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A4DF00-5E7C-4408-BC55-2C190C37F141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{0E831311-E828-46E0-A9F7-A0C3C1A0662F}"/>
   </bookViews>
@@ -1485,7 +1485,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1574,6 +1574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1598,6 +1599,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1617,12 +1624,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1673,17 +1674,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10895,73 +10886,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
       <c r="L5" t="s">
         <v>95</v>
       </c>
@@ -11066,17 +11057,17 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
@@ -11092,15 +11083,15 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
@@ -11282,28 +11273,28 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
     </row>
     <row r="20" spans="1:9" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -11458,22 +11449,22 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="67"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -11706,20 +11697,20 @@
   <sheetData>
     <row r="1" spans="2:7" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -11781,22 +11772,22 @@
     </row>
     <row r="11" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="64"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="70"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="72"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="75"/>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9"/>
@@ -11866,10 +11857,10 @@
     </row>
     <row r="19" spans="2:8" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:8" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="69"/>
+      <c r="C20" s="72"/>
     </row>
     <row r="21" spans="2:8" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
@@ -11884,22 +11875,22 @@
     </row>
     <row r="25" spans="2:8" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
     </row>
     <row r="27" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="70"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="72"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="75"/>
     </row>
     <row r="28" spans="2:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
@@ -11951,14 +11942,14 @@
     </row>
     <row r="31" spans="2:8" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:8" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="68" t="s">
+      <c r="B32" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="69"/>
-      <c r="F32" s="68" t="s">
+      <c r="C32" s="72"/>
+      <c r="F32" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="69"/>
+      <c r="G32" s="72"/>
       <c r="H32" t="s">
         <v>35</v>
       </c>
@@ -11982,22 +11973,22 @@
     </row>
     <row r="37" spans="2:7" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="61" t="s">
+      <c r="B38" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="63"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="64"/>
     </row>
     <row r="39" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="70"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="72"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="75"/>
     </row>
     <row r="40" spans="2:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="9"/>
@@ -12043,14 +12034,14 @@
     </row>
     <row r="45" spans="2:7" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="2:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="68" t="s">
+      <c r="B46" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="69"/>
-      <c r="F46" s="73" t="s">
+      <c r="C46" s="72"/>
+      <c r="F46" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="G46" s="74"/>
+      <c r="G46" s="77"/>
     </row>
     <row r="47" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B47" s="12" t="s">
@@ -12062,23 +12053,23 @@
       <c r="D47" t="s">
         <v>29</v>
       </c>
-      <c r="F47" s="75" t="s">
+      <c r="F47" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="G47" s="76"/>
+      <c r="G47" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="B12:G13"/>
+    <mergeCell ref="F46:G46"/>
     <mergeCell ref="F47:G47"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="B38:G39"/>
     <mergeCell ref="B26:G27"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="B12:G13"/>
-    <mergeCell ref="F46:G46"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -12101,69 +12092,69 @@
   <sheetData>
     <row r="1" spans="2:22" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="79"/>
-      <c r="R2" s="61" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="80"/>
+      <c r="R2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="64"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="80"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="82"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="66"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="83"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="67"/>
     </row>
     <row r="4" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="83"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="85"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="86"/>
       <c r="R4" s="27" t="s">
         <v>1</v>
       </c>
@@ -12226,40 +12217,40 @@
       <c r="V7" s="7"/>
     </row>
     <row r="8" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="64"/>
     </row>
     <row r="9" spans="2:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="64"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="66"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="67"/>
     </row>
     <row r="10" spans="2:22" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="22" t="s">
@@ -12539,92 +12530,92 @@
   <sheetData>
     <row r="1" spans="2:16" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="80"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="80"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="82"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="83"/>
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="83"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="85"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="86"/>
     </row>
     <row r="7" spans="2:16" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="64"/>
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
-      <c r="K8" s="61" t="s">
+      <c r="K8" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="64"/>
     </row>
     <row r="9" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="70"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="72"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="75"/>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="66"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="67"/>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="22" t="s">
@@ -12777,22 +12768,22 @@
     </row>
     <row r="15" spans="2:16" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="64"/>
     </row>
     <row r="17" spans="3:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="70"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="75"/>
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
       <c r="K17" s="30"/>
@@ -12894,22 +12885,22 @@
       <c r="H23" s="31"/>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="64"/>
     </row>
     <row r="25" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="70"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="75"/>
     </row>
     <row r="26" spans="3:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="22" t="s">
@@ -13026,77 +13017,77 @@
   <sheetData>
     <row r="1" spans="4:18" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="4:18" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="88"/>
     </row>
     <row r="3" spans="4:18" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="88"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="90"/>
     </row>
     <row r="4" spans="4:18" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="90"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="91"/>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="92"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="4:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="4:18" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="64"/>
     </row>
     <row r="9" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="64"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="66"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="67"/>
     </row>
     <row r="10" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="47" t="s">
@@ -13205,31 +13196,31 @@
     <row r="16" spans="4:18" ht="13.9" x14ac:dyDescent="0.25"/>
     <row r="17" spans="4:13" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="4:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="61" t="str">
+      <c r="D18" s="62" t="str">
         <f>I11</f>
         <v>David</v>
       </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="64"/>
     </row>
     <row r="19" spans="4:13" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="70"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="72"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="75"/>
     </row>
     <row r="20" spans="4:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D20" s="51" t="s">
@@ -13551,7 +13542,7 @@
         <v>0.52998605299860524</v>
       </c>
     </row>
-    <row r="29" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D29" s="10">
         <v>1.1000000000000001</v>
       </c>
@@ -13587,7 +13578,7 @@
         <v>0.51107325383304936</v>
       </c>
     </row>
-    <row r="30" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D30" s="10">
         <v>1.2</v>
       </c>
@@ -13623,7 +13614,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="31" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D31" s="10">
         <v>1.3</v>
       </c>
@@ -13659,7 +13650,7 @@
         <v>0.45151515151515154</v>
       </c>
     </row>
-    <row r="32" spans="4:13" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D32" s="10">
         <v>1.5</v>
       </c>
@@ -13695,7 +13686,7 @@
         <v>0.40707964601769919</v>
       </c>
     </row>
-    <row r="33" spans="4:13" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D33" s="11">
         <v>1.7</v>
       </c>
@@ -13731,33 +13722,33 @@
         <v>0.36686390532544377</v>
       </c>
     </row>
-    <row r="36" spans="4:13" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D37" s="61" t="str">
+      <c r="D37" s="62" t="str">
         <f>I12</f>
         <v>Adam</v>
       </c>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="64"/>
     </row>
     <row r="38" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="70"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="72"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="75"/>
     </row>
     <row r="39" spans="4:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D39" s="51" t="s">
@@ -14261,31 +14252,31 @@
     </row>
     <row r="55" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D56" s="61" t="str">
+      <c r="D56" s="62" t="str">
         <f>I13</f>
         <v>Jirka</v>
       </c>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="62"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="62"/>
-      <c r="K56" s="62"/>
-      <c r="L56" s="62"/>
-      <c r="M56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="63"/>
+      <c r="K56" s="63"/>
+      <c r="L56" s="63"/>
+      <c r="M56" s="64"/>
     </row>
     <row r="57" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="70"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="71"/>
-      <c r="J57" s="71"/>
-      <c r="K57" s="71"/>
-      <c r="L57" s="71"/>
-      <c r="M57" s="72"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="74"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="74"/>
+      <c r="J57" s="74"/>
+      <c r="K57" s="74"/>
+      <c r="L57" s="74"/>
+      <c r="M57" s="75"/>
     </row>
     <row r="58" spans="4:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D58" s="51" t="s">
@@ -14789,31 +14780,31 @@
     </row>
     <row r="74" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="75" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D75" s="61" t="str">
+      <c r="D75" s="62" t="str">
         <f>I14</f>
         <v>Ondra</v>
       </c>
-      <c r="E75" s="62"/>
-      <c r="F75" s="62"/>
-      <c r="G75" s="62"/>
-      <c r="H75" s="62"/>
-      <c r="I75" s="62"/>
-      <c r="J75" s="62"/>
-      <c r="K75" s="62"/>
-      <c r="L75" s="62"/>
-      <c r="M75" s="63"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="63"/>
+      <c r="H75" s="63"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="63"/>
+      <c r="K75" s="63"/>
+      <c r="L75" s="63"/>
+      <c r="M75" s="64"/>
     </row>
     <row r="76" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D76" s="70"/>
-      <c r="E76" s="71"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="71"/>
-      <c r="I76" s="71"/>
-      <c r="J76" s="71"/>
-      <c r="K76" s="71"/>
-      <c r="L76" s="71"/>
-      <c r="M76" s="72"/>
+      <c r="D76" s="73"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="74"/>
+      <c r="G76" s="74"/>
+      <c r="H76" s="74"/>
+      <c r="I76" s="74"/>
+      <c r="J76" s="74"/>
+      <c r="K76" s="74"/>
+      <c r="L76" s="74"/>
+      <c r="M76" s="75"/>
     </row>
     <row r="77" spans="4:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D77" s="51" t="s">
@@ -15334,8 +15325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA9764A-BE0D-40A4-90DE-3D4B5ED9DA7C}">
   <dimension ref="C2:X69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15345,73 +15336,73 @@
   <sheetData>
     <row r="2" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="87"/>
-      <c r="T3" s="61" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="88"/>
+      <c r="T3" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="64"/>
     </row>
     <row r="4" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="88"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="89"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="72"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="90"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="75"/>
     </row>
     <row r="5" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="90"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="92"/>
-      <c r="T5" s="99" t="s">
+      <c r="C5" s="91"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="93"/>
+      <c r="T5" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="U5" s="99" t="s">
+      <c r="U5" s="60" t="s">
         <v>120</v>
       </c>
       <c r="V5" s="33" t="s">
@@ -15431,10 +15422,9 @@
       <c r="U6" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="V6" s="95" t="s">
+      <c r="V6" t="s">
         <v>53</v>
       </c>
-      <c r="W6" s="95"/>
       <c r="X6" s="5"/>
     </row>
     <row r="7" spans="3:24" x14ac:dyDescent="0.25">
@@ -15444,10 +15434,10 @@
       <c r="U7" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="V7" s="95" t="s">
+      <c r="V7" t="s">
         <v>53</v>
       </c>
-      <c r="W7" s="97" t="s">
+      <c r="W7" t="s">
         <v>135</v>
       </c>
       <c r="X7" s="5"/>
@@ -15457,39 +15447,37 @@
         <v>5</v>
       </c>
       <c r="U8" s="4"/>
-      <c r="V8" s="95" t="s">
+      <c r="V8" t="s">
         <v>69</v>
       </c>
-      <c r="W8" s="95"/>
       <c r="X8" s="5"/>
     </row>
     <row r="9" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="64"/>
       <c r="T9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="U9" s="4"/>
-      <c r="V9" s="95" t="s">
+      <c r="V9" t="s">
         <v>69</v>
       </c>
-      <c r="W9" s="95"/>
       <c r="X9" s="5"/>
     </row>
     <row r="10" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="70"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="72"/>
-      <c r="T10" s="98" t="s">
+      <c r="D10" s="73"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="75"/>
+      <c r="T10" s="16" t="s">
         <v>133</v>
       </c>
       <c r="U10" s="16" t="s">
@@ -15527,127 +15515,148 @@
       <c r="D12" s="10">
         <v>50</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="94">
         <v>3</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="94">
         <v>3.0579999999999998</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="94">
         <v>3</v>
       </c>
-      <c r="H12" s="48">
+      <c r="H12" s="94">
         <v>9.0399999999999991</v>
       </c>
-      <c r="I12" s="52"/>
+      <c r="I12" s="52">
+        <f>H12/(2*SQRT(2))</f>
+        <v>3.1961226509631944</v>
+      </c>
     </row>
     <row r="13" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D13" s="10">
         <v>100</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="94">
         <v>3</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="94">
         <v>3.056</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="94">
         <v>3</v>
       </c>
-      <c r="H13" s="48">
+      <c r="H13" s="94">
         <v>9.0399999999999991</v>
       </c>
-      <c r="I13" s="52"/>
+      <c r="I13" s="52">
+        <f t="shared" ref="I13:I21" si="0">H13/(2*SQRT(2))</f>
+        <v>3.1961226509631944</v>
+      </c>
     </row>
     <row r="14" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D14" s="10">
         <v>200</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="94">
         <v>3</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="94">
         <v>3.056</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="94">
         <v>3</v>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="94">
         <v>9.0399999999999991</v>
       </c>
-      <c r="I14" s="52"/>
+      <c r="I14" s="52">
+        <f t="shared" si="0"/>
+        <v>3.1961226509631944</v>
+      </c>
     </row>
     <row r="15" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D15" s="10">
         <v>500</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="94">
         <v>3</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F15" s="94">
         <v>3.0470000000000002</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G15" s="94">
         <v>3</v>
       </c>
-      <c r="H15" s="48">
+      <c r="H15" s="94">
         <v>9.0399999999999991</v>
       </c>
-      <c r="I15" s="52"/>
+      <c r="I15" s="52">
+        <f t="shared" si="0"/>
+        <v>3.1961226509631944</v>
+      </c>
     </row>
     <row r="16" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D16" s="10">
         <v>1000</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="94">
         <v>3</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F16" s="94">
         <v>3.0339999999999998</v>
       </c>
-      <c r="G16" s="48">
+      <c r="G16" s="94">
         <v>3</v>
       </c>
-      <c r="H16" s="48">
+      <c r="H16" s="94">
         <v>9.0399999999999991</v>
       </c>
-      <c r="I16" s="52"/>
+      <c r="I16" s="52">
+        <f t="shared" si="0"/>
+        <v>3.1961226509631944</v>
+      </c>
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D17" s="10">
         <v>2000</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="94">
         <v>3</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="94">
         <v>2.9649999999999999</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="94">
         <v>3</v>
       </c>
-      <c r="H17" s="48">
+      <c r="H17" s="94">
         <v>8.9600000000000009</v>
       </c>
-      <c r="I17" s="52"/>
+      <c r="I17" s="52">
+        <f t="shared" si="0"/>
+        <v>3.1678383797157328</v>
+      </c>
     </row>
     <row r="18" spans="4:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="10">
         <v>5000</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="94">
         <v>3</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="94">
         <v>2.4900000000000002</v>
       </c>
-      <c r="G18" s="48">
+      <c r="G18" s="94">
         <v>3</v>
       </c>
-      <c r="H18" s="48">
+      <c r="H18" s="94">
         <v>8.9600000000000009</v>
       </c>
-      <c r="I18" s="52"/>
+      <c r="I18" s="52">
+        <f t="shared" si="0"/>
+        <v>3.1678383797157328</v>
+      </c>
       <c r="J18" s="30"/>
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
@@ -15657,19 +15666,22 @@
       <c r="D19" s="10">
         <v>10000</v>
       </c>
-      <c r="E19" s="48">
+      <c r="E19" s="94">
         <v>2.95</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="94">
         <v>1.63</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="94">
         <v>3</v>
       </c>
-      <c r="H19" s="48">
+      <c r="H19" s="94">
         <v>8.9600000000000009</v>
       </c>
-      <c r="I19" s="52"/>
+      <c r="I19" s="52">
+        <f t="shared" si="0"/>
+        <v>3.1678383797157328</v>
+      </c>
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
@@ -15679,19 +15691,22 @@
       <c r="D20" s="10">
         <v>20000</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="94">
         <v>2.5</v>
       </c>
-      <c r="F20" s="48">
+      <c r="F20" s="94">
         <v>0.86</v>
       </c>
-      <c r="G20" s="48">
+      <c r="G20" s="94">
         <v>3</v>
       </c>
-      <c r="H20" s="48">
+      <c r="H20" s="94">
         <v>8.9600000000000009</v>
       </c>
-      <c r="I20" s="52"/>
+      <c r="I20" s="52">
+        <f t="shared" si="0"/>
+        <v>3.1678383797157328</v>
+      </c>
       <c r="J20" s="59"/>
       <c r="K20" s="59"/>
       <c r="L20" s="59"/>
@@ -15713,7 +15728,10 @@
       <c r="H21" s="49">
         <v>8.9600000000000009</v>
       </c>
-      <c r="I21" s="53"/>
+      <c r="I21" s="53">
+        <f t="shared" si="0"/>
+        <v>3.1678383797157328</v>
+      </c>
       <c r="J21" s="48"/>
       <c r="K21" s="48"/>
       <c r="L21" s="48"/>
@@ -15738,26 +15756,26 @@
       <c r="M24" s="48"/>
     </row>
     <row r="25" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D25" s="61" t="s">
+      <c r="D25" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="64"/>
       <c r="J25" s="48"/>
       <c r="K25" s="48"/>
       <c r="L25" s="48"/>
       <c r="M25" s="48"/>
     </row>
     <row r="26" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="70"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="72"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="75"/>
       <c r="J26" s="48"/>
       <c r="K26" s="48"/>
       <c r="L26" s="48"/>
@@ -15791,19 +15809,22 @@
       <c r="D28" s="10">
         <v>50</v>
       </c>
-      <c r="E28" s="48">
+      <c r="E28" s="94">
         <v>3.1</v>
       </c>
-      <c r="F28" s="48">
+      <c r="F28" s="94">
         <v>2.99</v>
       </c>
-      <c r="G28" s="48">
+      <c r="G28" s="94">
         <v>3</v>
       </c>
-      <c r="H28" s="48">
+      <c r="H28" s="94">
         <v>6.24</v>
       </c>
-      <c r="I28" s="52"/>
+      <c r="I28" s="52">
+        <f>H28/2</f>
+        <v>3.12</v>
+      </c>
       <c r="J28" s="48"/>
       <c r="K28" s="48"/>
       <c r="L28" s="48"/>
@@ -15813,19 +15834,22 @@
       <c r="D29" s="10">
         <v>100</v>
       </c>
-      <c r="E29" s="48">
+      <c r="E29" s="94">
         <v>3.1</v>
       </c>
-      <c r="F29" s="48">
+      <c r="F29" s="94">
         <v>2.99</v>
       </c>
-      <c r="G29" s="48">
+      <c r="G29" s="94">
         <v>3</v>
       </c>
-      <c r="H29" s="48">
+      <c r="H29" s="94">
         <v>6.24</v>
       </c>
-      <c r="I29" s="52"/>
+      <c r="I29" s="52">
+        <f t="shared" ref="I29:I37" si="1">H29/2</f>
+        <v>3.12</v>
+      </c>
       <c r="J29" s="48"/>
       <c r="K29" s="48"/>
       <c r="L29" s="48"/>
@@ -15835,19 +15859,22 @@
       <c r="D30" s="10">
         <v>200</v>
       </c>
-      <c r="E30" s="48">
+      <c r="E30" s="94">
         <v>3.1</v>
       </c>
-      <c r="F30" s="48">
+      <c r="F30" s="94">
         <v>2.97</v>
       </c>
-      <c r="G30" s="48">
+      <c r="G30" s="94">
         <v>3</v>
       </c>
-      <c r="H30" s="48">
+      <c r="H30" s="94">
         <v>6.28</v>
       </c>
-      <c r="I30" s="52"/>
+      <c r="I30" s="52">
+        <f t="shared" si="1"/>
+        <v>3.14</v>
+      </c>
       <c r="J30" s="48"/>
       <c r="K30" s="48"/>
       <c r="L30" s="48"/>
@@ -15857,19 +15884,22 @@
       <c r="D31" s="10">
         <v>500</v>
       </c>
-      <c r="E31" s="48">
+      <c r="E31" s="94">
         <v>3.1</v>
       </c>
-      <c r="F31" s="48">
+      <c r="F31" s="94">
         <v>2.9</v>
       </c>
-      <c r="G31" s="48">
+      <c r="G31" s="94">
         <v>3</v>
       </c>
-      <c r="H31" s="48">
+      <c r="H31" s="94">
         <v>6.24</v>
       </c>
-      <c r="I31" s="52"/>
+      <c r="I31" s="52">
+        <f t="shared" si="1"/>
+        <v>3.12</v>
+      </c>
       <c r="J31" s="48"/>
       <c r="K31" s="48"/>
       <c r="L31" s="48"/>
@@ -15879,19 +15909,22 @@
       <c r="D32" s="10">
         <v>1000</v>
       </c>
-      <c r="E32" s="48">
+      <c r="E32" s="94">
         <v>3.1</v>
       </c>
-      <c r="F32" s="48">
+      <c r="F32" s="94">
         <v>2.8</v>
       </c>
-      <c r="G32" s="48">
+      <c r="G32" s="94">
         <v>3</v>
       </c>
-      <c r="H32" s="48">
+      <c r="H32" s="94">
         <v>6.28</v>
       </c>
-      <c r="I32" s="52"/>
+      <c r="I32" s="52">
+        <f t="shared" si="1"/>
+        <v>3.14</v>
+      </c>
       <c r="J32" s="48"/>
       <c r="K32" s="48"/>
       <c r="L32" s="48"/>
@@ -15901,73 +15934,85 @@
       <c r="D33" s="10">
         <v>2000</v>
       </c>
-      <c r="E33" s="48">
+      <c r="E33" s="94">
         <v>3.1</v>
       </c>
-      <c r="F33" s="48">
+      <c r="F33" s="94">
         <v>2.7</v>
       </c>
-      <c r="G33" s="48">
+      <c r="G33" s="94">
         <v>3</v>
       </c>
-      <c r="H33" s="48">
+      <c r="H33" s="94">
         <v>6.24</v>
       </c>
-      <c r="I33" s="52"/>
+      <c r="I33" s="52">
+        <f t="shared" si="1"/>
+        <v>3.12</v>
+      </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D34" s="10">
         <v>5000</v>
       </c>
-      <c r="E34" s="48">
+      <c r="E34" s="94">
         <v>3</v>
       </c>
-      <c r="F34" s="48">
+      <c r="F34" s="94">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G34" s="48">
+      <c r="G34" s="94">
         <v>3</v>
       </c>
-      <c r="H34" s="48">
+      <c r="H34" s="94">
         <v>6.24</v>
       </c>
-      <c r="I34" s="52"/>
+      <c r="I34" s="52">
+        <f t="shared" si="1"/>
+        <v>3.12</v>
+      </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D35" s="10">
         <v>10000</v>
       </c>
-      <c r="E35" s="48">
+      <c r="E35" s="94">
         <v>2.9</v>
       </c>
-      <c r="F35" s="48">
+      <c r="F35" s="94">
         <v>1.48</v>
       </c>
-      <c r="G35" s="48">
+      <c r="G35" s="94">
         <v>3</v>
       </c>
-      <c r="H35" s="48">
+      <c r="H35" s="94">
         <v>6.24</v>
       </c>
-      <c r="I35" s="52"/>
+      <c r="I35" s="52">
+        <f t="shared" si="1"/>
+        <v>3.12</v>
+      </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D36" s="10">
         <v>20000</v>
       </c>
-      <c r="E36" s="48">
+      <c r="E36" s="94">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F36" s="48">
+      <c r="F36" s="94">
         <v>0.8</v>
       </c>
-      <c r="G36" s="48">
+      <c r="G36" s="94">
         <v>3</v>
       </c>
-      <c r="H36" s="48">
+      <c r="H36" s="94">
         <v>6.24</v>
       </c>
-      <c r="I36" s="52"/>
+      <c r="I36" s="52">
+        <f t="shared" si="1"/>
+        <v>3.12</v>
+      </c>
     </row>
     <row r="37" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D37" s="11">
@@ -15985,26 +16030,29 @@
       <c r="H37" s="49">
         <v>6.24</v>
       </c>
-      <c r="I37" s="53"/>
+      <c r="I37" s="53">
+        <f t="shared" si="1"/>
+        <v>3.12</v>
+      </c>
     </row>
     <row r="40" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D41" s="61" t="s">
+      <c r="D41" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="64"/>
     </row>
     <row r="42" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="70"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="72"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="75"/>
     </row>
     <row r="43" spans="4:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D43" s="51" t="s">
@@ -16030,163 +16078,190 @@
       <c r="D44" s="10">
         <v>50</v>
       </c>
-      <c r="E44" s="96">
+      <c r="E44" s="48">
         <v>3</v>
       </c>
-      <c r="F44" s="96">
+      <c r="F44" s="48">
         <v>3</v>
       </c>
-      <c r="G44" s="96">
+      <c r="G44" s="48">
         <v>3</v>
       </c>
-      <c r="H44" s="96">
+      <c r="H44" s="48">
         <v>10.64</v>
       </c>
-      <c r="I44" s="52"/>
+      <c r="I44" s="52">
+        <f>H44/(2*SQRT(3))</f>
+        <v>3.0715034320888095</v>
+      </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D45" s="10">
         <v>100</v>
       </c>
-      <c r="E45" s="96">
+      <c r="E45" s="48">
         <v>2.95</v>
       </c>
-      <c r="F45" s="96">
+      <c r="F45" s="48">
         <v>3</v>
       </c>
-      <c r="G45" s="96">
+      <c r="G45" s="48">
         <v>3</v>
       </c>
-      <c r="H45" s="96">
+      <c r="H45" s="48">
         <v>10.64</v>
       </c>
-      <c r="I45" s="52"/>
+      <c r="I45" s="52">
+        <f t="shared" ref="I45:I53" si="2">H45/(2*SQRT(3))</f>
+        <v>3.0715034320888095</v>
+      </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D46" s="10">
         <v>200</v>
       </c>
-      <c r="E46" s="96">
+      <c r="E46" s="48">
         <v>2.9</v>
       </c>
-      <c r="F46" s="96">
+      <c r="F46" s="48">
         <v>3</v>
       </c>
-      <c r="G46" s="96">
+      <c r="G46" s="48">
         <v>3</v>
       </c>
-      <c r="H46" s="96">
+      <c r="H46" s="48">
         <v>10.72</v>
       </c>
-      <c r="I46" s="52"/>
+      <c r="I46" s="52">
+        <f t="shared" si="2"/>
+        <v>3.0945974428563945</v>
+      </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D47" s="10">
         <v>500</v>
       </c>
-      <c r="E47" s="96">
+      <c r="E47" s="48">
         <v>2.9</v>
       </c>
-      <c r="F47" s="96">
+      <c r="F47" s="48">
         <v>3</v>
       </c>
-      <c r="G47" s="96">
+      <c r="G47" s="48">
         <v>3</v>
       </c>
-      <c r="H47" s="96">
+      <c r="H47" s="48">
         <v>10.72</v>
       </c>
-      <c r="I47" s="52"/>
+      <c r="I47" s="52">
+        <f t="shared" si="2"/>
+        <v>3.0945974428563945</v>
+      </c>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D48" s="10">
         <v>1000</v>
       </c>
-      <c r="E48" s="96">
+      <c r="E48" s="48">
         <v>2.95</v>
       </c>
-      <c r="F48" s="96">
+      <c r="F48" s="48">
         <v>3</v>
       </c>
-      <c r="G48" s="96">
+      <c r="G48" s="48">
         <v>3</v>
       </c>
-      <c r="H48" s="96">
+      <c r="H48" s="48">
         <v>10.72</v>
       </c>
-      <c r="I48" s="52"/>
+      <c r="I48" s="52">
+        <f t="shared" si="2"/>
+        <v>3.0945974428563945</v>
+      </c>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D49" s="10">
         <v>2000</v>
       </c>
-      <c r="E49" s="96">
+      <c r="E49" s="48">
         <v>2.95</v>
       </c>
-      <c r="F49" s="96">
+      <c r="F49" s="48">
         <v>2.9</v>
       </c>
-      <c r="G49" s="96">
+      <c r="G49" s="48">
         <v>3</v>
       </c>
-      <c r="H49" s="96">
+      <c r="H49" s="48">
         <v>10.72</v>
       </c>
-      <c r="I49" s="52"/>
+      <c r="I49" s="52">
+        <f t="shared" si="2"/>
+        <v>3.0945974428563945</v>
+      </c>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D50" s="10">
         <v>5000</v>
       </c>
-      <c r="E50" s="96">
+      <c r="E50" s="48">
         <v>2.9</v>
       </c>
-      <c r="F50" s="96">
+      <c r="F50" s="48">
         <v>2.4</v>
       </c>
-      <c r="G50" s="96">
+      <c r="G50" s="48">
         <v>3</v>
       </c>
-      <c r="H50" s="96">
+      <c r="H50" s="48">
         <v>10.72</v>
       </c>
-      <c r="I50" s="52"/>
+      <c r="I50" s="52">
+        <f t="shared" si="2"/>
+        <v>3.0945974428563945</v>
+      </c>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D51" s="10">
         <v>10000</v>
       </c>
-      <c r="E51" s="96">
+      <c r="E51" s="48">
         <v>2.9</v>
       </c>
-      <c r="F51" s="96">
+      <c r="F51" s="48">
         <v>1.6</v>
       </c>
-      <c r="G51" s="96">
+      <c r="G51" s="48">
         <v>3</v>
       </c>
-      <c r="H51" s="96">
+      <c r="H51" s="48">
         <v>10.72</v>
       </c>
-      <c r="I51" s="52"/>
+      <c r="I51" s="52">
+        <f t="shared" si="2"/>
+        <v>3.0945974428563945</v>
+      </c>
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D52" s="10">
         <v>20000</v>
       </c>
-      <c r="E52" s="96">
+      <c r="E52" s="48">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F52" s="96">
+      <c r="F52" s="48">
         <v>0.8</v>
       </c>
-      <c r="G52" s="96">
+      <c r="G52" s="48">
         <v>3</v>
       </c>
-      <c r="H52" s="96">
+      <c r="H52" s="48">
         <v>10.72</v>
       </c>
-      <c r="I52" s="52"/>
+      <c r="I52" s="52">
+        <f t="shared" si="2"/>
+        <v>3.0945974428563945</v>
+      </c>
     </row>
     <row r="53" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D53" s="11">
@@ -16204,111 +16279,104 @@
       <c r="H53" s="49">
         <v>10.72</v>
       </c>
-      <c r="I53" s="53"/>
+      <c r="I53" s="52">
+        <f t="shared" si="2"/>
+        <v>3.0945974428563945</v>
+      </c>
     </row>
     <row r="57" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D57" s="93"/>
-      <c r="E57" s="93"/>
-      <c r="F57" s="93"/>
-      <c r="G57" s="93"/>
-      <c r="H57" s="93"/>
-      <c r="I57" s="93"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="66"/>
     </row>
     <row r="58" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D58" s="93"/>
-      <c r="E58" s="93"/>
-      <c r="F58" s="93"/>
-      <c r="G58" s="93"/>
-      <c r="H58" s="93"/>
-      <c r="I58" s="93"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="66"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="66"/>
+      <c r="H58" s="66"/>
+      <c r="I58" s="66"/>
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D59" s="94"/>
-      <c r="E59" s="94"/>
-      <c r="F59" s="94"/>
-      <c r="G59" s="94"/>
-      <c r="H59" s="94"/>
-      <c r="I59" s="94"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="59"/>
     </row>
     <row r="60" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D60" s="95"/>
-      <c r="E60" s="96"/>
-      <c r="F60" s="96"/>
-      <c r="G60" s="96"/>
-      <c r="H60" s="96"/>
-      <c r="I60" s="96"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
     </row>
     <row r="61" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D61" s="95"/>
-      <c r="E61" s="96"/>
-      <c r="F61" s="96"/>
-      <c r="G61" s="96"/>
-      <c r="H61" s="96"/>
-      <c r="I61" s="96"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="48"/>
     </row>
     <row r="62" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D62" s="95"/>
-      <c r="E62" s="96"/>
-      <c r="F62" s="96"/>
-      <c r="G62" s="96"/>
-      <c r="H62" s="96"/>
-      <c r="I62" s="96"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
     </row>
     <row r="63" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D63" s="95"/>
-      <c r="E63" s="96"/>
-      <c r="F63" s="96"/>
-      <c r="G63" s="96"/>
-      <c r="H63" s="96"/>
-      <c r="I63" s="96"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="48"/>
     </row>
     <row r="64" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D64" s="95"/>
-      <c r="E64" s="96"/>
-      <c r="F64" s="96"/>
-      <c r="G64" s="96"/>
-      <c r="H64" s="96"/>
-      <c r="I64" s="96"/>
-    </row>
-    <row r="65" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D65" s="95"/>
-      <c r="E65" s="96"/>
-      <c r="F65" s="96"/>
-      <c r="G65" s="96"/>
-      <c r="H65" s="96"/>
-      <c r="I65" s="96"/>
-    </row>
-    <row r="66" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D66" s="95"/>
-      <c r="E66" s="96"/>
-      <c r="F66" s="96"/>
-      <c r="G66" s="96"/>
-      <c r="H66" s="96"/>
-      <c r="I66" s="96"/>
-    </row>
-    <row r="67" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D67" s="95"/>
-      <c r="E67" s="96"/>
-      <c r="F67" s="96"/>
-      <c r="G67" s="96"/>
-      <c r="H67" s="96"/>
-      <c r="I67" s="96"/>
-    </row>
-    <row r="68" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D68" s="95"/>
-      <c r="E68" s="96"/>
-      <c r="F68" s="96"/>
-      <c r="G68" s="96"/>
-      <c r="H68" s="96"/>
-      <c r="I68" s="96"/>
-    </row>
-    <row r="69" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D69" s="95"/>
-      <c r="E69" s="96"/>
-      <c r="F69" s="96"/>
-      <c r="G69" s="96"/>
-      <c r="H69" s="96"/>
-      <c r="I69" s="96"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="48"/>
+    </row>
+    <row r="65" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="48"/>
+    </row>
+    <row r="66" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
+    </row>
+    <row r="67" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E67" s="48"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="48"/>
+    </row>
+    <row r="68" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="48"/>
+    </row>
+    <row r="69" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E69" s="48"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/ELM/ELM_Mereni.xlsx
+++ b/ELM/ELM_Mereni.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School\ELM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\ELM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A4DF00-5E7C-4408-BC55-2C190C37F141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D04BE1-C64B-4001-B05A-98BF954835DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{0E831311-E828-46E0-A9F7-A0C3C1A0662F}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1599,12 +1599,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1624,6 +1618,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10871,6 +10871,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3273D566-F60A-4883-A5BB-DADB496E8CC4}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -11683,6 +11684,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB7CE1-7FF6-499A-9CC8-A477D4F18746}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:H47"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -11782,12 +11784,12 @@
       <c r="G12" s="64"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="73"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="75"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="73"/>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9"/>
@@ -11857,10 +11859,10 @@
     </row>
     <row r="19" spans="2:8" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:8" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="72"/>
+      <c r="C20" s="70"/>
     </row>
     <row r="21" spans="2:8" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
@@ -11885,12 +11887,12 @@
       <c r="G26" s="64"/>
     </row>
     <row r="27" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="73"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="75"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="73"/>
     </row>
     <row r="28" spans="2:8" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
@@ -11942,14 +11944,14 @@
     </row>
     <row r="31" spans="2:8" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:8" ht="14.45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="72"/>
-      <c r="F32" s="71" t="s">
+      <c r="C32" s="70"/>
+      <c r="F32" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="72"/>
+      <c r="G32" s="70"/>
       <c r="H32" t="s">
         <v>35</v>
       </c>
@@ -11983,12 +11985,12 @@
       <c r="G38" s="64"/>
     </row>
     <row r="39" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="73"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="75"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="73"/>
     </row>
     <row r="40" spans="2:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="9"/>
@@ -12034,14 +12036,14 @@
     </row>
     <row r="45" spans="2:7" ht="14.45" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="2:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="71" t="s">
+      <c r="B46" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="72"/>
-      <c r="F46" s="76" t="s">
+      <c r="C46" s="70"/>
+      <c r="F46" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="G46" s="77"/>
+      <c r="G46" s="75"/>
     </row>
     <row r="47" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B47" s="12" t="s">
@@ -12053,23 +12055,23 @@
       <c r="D47" t="s">
         <v>29</v>
       </c>
-      <c r="F47" s="69" t="s">
+      <c r="F47" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="G47" s="70"/>
+      <c r="G47" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B38:G39"/>
+    <mergeCell ref="B26:G27"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="B12:G13"/>
     <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B38:G39"/>
-    <mergeCell ref="B26:G27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -12082,6 +12084,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1847CDB-6E36-4BA1-96FE-4AB7A1966583}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:V14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12520,6 +12523,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D655F2-C2A2-47A2-8A9A-539CF7ECF39B}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:P30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -12603,12 +12607,12 @@
       <c r="O8" s="64"/>
     </row>
     <row r="9" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="75"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="73"/>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
       <c r="K9" s="65"/>
@@ -12778,12 +12782,12 @@
       <c r="H16" s="64"/>
     </row>
     <row r="17" spans="3:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="75"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="73"/>
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
       <c r="K17" s="30"/>
@@ -12895,12 +12899,12 @@
       <c r="H24" s="64"/>
     </row>
     <row r="25" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="75"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="73"/>
     </row>
     <row r="26" spans="3:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="22" t="s">
@@ -13007,6 +13011,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA44BD41-FBD2-4B16-A1A5-7CDDFC74A3B8}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="D1:R90"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -13211,16 +13216,16 @@
       <c r="M18" s="64"/>
     </row>
     <row r="19" spans="4:13" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="73"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="75"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="73"/>
     </row>
     <row r="20" spans="4:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D20" s="51" t="s">
@@ -13739,16 +13744,16 @@
       <c r="M37" s="64"/>
     </row>
     <row r="38" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="73"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="74"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="74"/>
-      <c r="M38" s="75"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="73"/>
     </row>
     <row r="39" spans="4:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D39" s="51" t="s">
@@ -14267,16 +14272,16 @@
       <c r="M56" s="64"/>
     </row>
     <row r="57" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="73"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="74"/>
-      <c r="G57" s="74"/>
-      <c r="H57" s="74"/>
-      <c r="I57" s="74"/>
-      <c r="J57" s="74"/>
-      <c r="K57" s="74"/>
-      <c r="L57" s="74"/>
-      <c r="M57" s="75"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="72"/>
+      <c r="I57" s="72"/>
+      <c r="J57" s="72"/>
+      <c r="K57" s="72"/>
+      <c r="L57" s="72"/>
+      <c r="M57" s="73"/>
     </row>
     <row r="58" spans="4:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D58" s="51" t="s">
@@ -14795,16 +14800,16 @@
       <c r="M75" s="64"/>
     </row>
     <row r="76" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D76" s="73"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="74"/>
-      <c r="G76" s="74"/>
-      <c r="H76" s="74"/>
-      <c r="I76" s="74"/>
-      <c r="J76" s="74"/>
-      <c r="K76" s="74"/>
-      <c r="L76" s="74"/>
-      <c r="M76" s="75"/>
+      <c r="D76" s="71"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="72"/>
+      <c r="H76" s="72"/>
+      <c r="I76" s="72"/>
+      <c r="J76" s="72"/>
+      <c r="K76" s="72"/>
+      <c r="L76" s="72"/>
+      <c r="M76" s="73"/>
     </row>
     <row r="77" spans="4:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D77" s="51" t="s">
@@ -15323,10 +15328,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA9764A-BE0D-40A4-90DE-3D4B5ED9DA7C}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="C2:X69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15377,11 +15383,11 @@
       <c r="O4" s="61"/>
       <c r="P4" s="61"/>
       <c r="Q4" s="90"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="75"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="73"/>
     </row>
     <row r="5" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="91"/>
@@ -15471,12 +15477,12 @@
       <c r="X9" s="5"/>
     </row>
     <row r="10" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="73"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="75"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="73"/>
       <c r="T10" s="16" t="s">
         <v>133</v>
       </c>
@@ -15515,16 +15521,16 @@
       <c r="D12" s="10">
         <v>50</v>
       </c>
-      <c r="E12" s="94">
+      <c r="E12" s="48">
         <v>3</v>
       </c>
-      <c r="F12" s="94">
+      <c r="F12" s="48">
         <v>3.0579999999999998</v>
       </c>
-      <c r="G12" s="94">
+      <c r="G12" s="48">
         <v>3</v>
       </c>
-      <c r="H12" s="94">
+      <c r="H12" s="48">
         <v>9.0399999999999991</v>
       </c>
       <c r="I12" s="52">
@@ -15536,16 +15542,16 @@
       <c r="D13" s="10">
         <v>100</v>
       </c>
-      <c r="E13" s="94">
+      <c r="E13" s="48">
         <v>3</v>
       </c>
-      <c r="F13" s="94">
+      <c r="F13" s="48">
         <v>3.056</v>
       </c>
-      <c r="G13" s="94">
+      <c r="G13" s="48">
         <v>3</v>
       </c>
-      <c r="H13" s="94">
+      <c r="H13" s="48">
         <v>9.0399999999999991</v>
       </c>
       <c r="I13" s="52">
@@ -15557,16 +15563,16 @@
       <c r="D14" s="10">
         <v>200</v>
       </c>
-      <c r="E14" s="94">
+      <c r="E14" s="48">
         <v>3</v>
       </c>
-      <c r="F14" s="94">
+      <c r="F14" s="48">
         <v>3.056</v>
       </c>
-      <c r="G14" s="94">
+      <c r="G14" s="48">
         <v>3</v>
       </c>
-      <c r="H14" s="94">
+      <c r="H14" s="48">
         <v>9.0399999999999991</v>
       </c>
       <c r="I14" s="52">
@@ -15578,16 +15584,16 @@
       <c r="D15" s="10">
         <v>500</v>
       </c>
-      <c r="E15" s="94">
+      <c r="E15" s="48">
         <v>3</v>
       </c>
-      <c r="F15" s="94">
+      <c r="F15" s="48">
         <v>3.0470000000000002</v>
       </c>
-      <c r="G15" s="94">
+      <c r="G15" s="48">
         <v>3</v>
       </c>
-      <c r="H15" s="94">
+      <c r="H15" s="48">
         <v>9.0399999999999991</v>
       </c>
       <c r="I15" s="52">
@@ -15599,16 +15605,16 @@
       <c r="D16" s="10">
         <v>1000</v>
       </c>
-      <c r="E16" s="94">
+      <c r="E16" s="48">
         <v>3</v>
       </c>
-      <c r="F16" s="94">
+      <c r="F16" s="48">
         <v>3.0339999999999998</v>
       </c>
-      <c r="G16" s="94">
+      <c r="G16" s="48">
         <v>3</v>
       </c>
-      <c r="H16" s="94">
+      <c r="H16" s="48">
         <v>9.0399999999999991</v>
       </c>
       <c r="I16" s="52">
@@ -15620,16 +15626,16 @@
       <c r="D17" s="10">
         <v>2000</v>
       </c>
-      <c r="E17" s="94">
+      <c r="E17" s="48">
         <v>3</v>
       </c>
-      <c r="F17" s="94">
+      <c r="F17" s="48">
         <v>2.9649999999999999</v>
       </c>
-      <c r="G17" s="94">
+      <c r="G17" s="48">
         <v>3</v>
       </c>
-      <c r="H17" s="94">
+      <c r="H17" s="48">
         <v>8.9600000000000009</v>
       </c>
       <c r="I17" s="52">
@@ -15641,16 +15647,16 @@
       <c r="D18" s="10">
         <v>5000</v>
       </c>
-      <c r="E18" s="94">
+      <c r="E18" s="48">
         <v>3</v>
       </c>
-      <c r="F18" s="94">
+      <c r="F18" s="48">
         <v>2.4900000000000002</v>
       </c>
-      <c r="G18" s="94">
+      <c r="G18" s="48">
         <v>3</v>
       </c>
-      <c r="H18" s="94">
+      <c r="H18" s="48">
         <v>8.9600000000000009</v>
       </c>
       <c r="I18" s="52">
@@ -15666,16 +15672,16 @@
       <c r="D19" s="10">
         <v>10000</v>
       </c>
-      <c r="E19" s="94">
+      <c r="E19" s="48">
         <v>2.95</v>
       </c>
-      <c r="F19" s="94">
+      <c r="F19" s="48">
         <v>1.63</v>
       </c>
-      <c r="G19" s="94">
+      <c r="G19" s="48">
         <v>3</v>
       </c>
-      <c r="H19" s="94">
+      <c r="H19" s="48">
         <v>8.9600000000000009</v>
       </c>
       <c r="I19" s="52">
@@ -15691,16 +15697,16 @@
       <c r="D20" s="10">
         <v>20000</v>
       </c>
-      <c r="E20" s="94">
+      <c r="E20" s="48">
         <v>2.5</v>
       </c>
-      <c r="F20" s="94">
+      <c r="F20" s="48">
         <v>0.86</v>
       </c>
-      <c r="G20" s="94">
+      <c r="G20" s="48">
         <v>3</v>
       </c>
-      <c r="H20" s="94">
+      <c r="H20" s="48">
         <v>8.9600000000000009</v>
       </c>
       <c r="I20" s="52">
@@ -15770,12 +15776,12 @@
       <c r="M25" s="48"/>
     </row>
     <row r="26" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="73"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="75"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="73"/>
       <c r="J26" s="48"/>
       <c r="K26" s="48"/>
       <c r="L26" s="48"/>
@@ -15809,16 +15815,16 @@
       <c r="D28" s="10">
         <v>50</v>
       </c>
-      <c r="E28" s="94">
+      <c r="E28" s="48">
         <v>3.1</v>
       </c>
-      <c r="F28" s="94">
+      <c r="F28" s="48">
         <v>2.99</v>
       </c>
-      <c r="G28" s="94">
+      <c r="G28" s="48">
         <v>3</v>
       </c>
-      <c r="H28" s="94">
+      <c r="H28" s="48">
         <v>6.24</v>
       </c>
       <c r="I28" s="52">
@@ -15834,16 +15840,16 @@
       <c r="D29" s="10">
         <v>100</v>
       </c>
-      <c r="E29" s="94">
+      <c r="E29" s="48">
         <v>3.1</v>
       </c>
-      <c r="F29" s="94">
+      <c r="F29" s="48">
         <v>2.99</v>
       </c>
-      <c r="G29" s="94">
+      <c r="G29" s="48">
         <v>3</v>
       </c>
-      <c r="H29" s="94">
+      <c r="H29" s="48">
         <v>6.24</v>
       </c>
       <c r="I29" s="52">
@@ -15859,16 +15865,16 @@
       <c r="D30" s="10">
         <v>200</v>
       </c>
-      <c r="E30" s="94">
+      <c r="E30" s="48">
         <v>3.1</v>
       </c>
-      <c r="F30" s="94">
+      <c r="F30" s="48">
         <v>2.97</v>
       </c>
-      <c r="G30" s="94">
+      <c r="G30" s="48">
         <v>3</v>
       </c>
-      <c r="H30" s="94">
+      <c r="H30" s="48">
         <v>6.28</v>
       </c>
       <c r="I30" s="52">
@@ -15884,16 +15890,16 @@
       <c r="D31" s="10">
         <v>500</v>
       </c>
-      <c r="E31" s="94">
+      <c r="E31" s="48">
         <v>3.1</v>
       </c>
-      <c r="F31" s="94">
+      <c r="F31" s="48">
         <v>2.9</v>
       </c>
-      <c r="G31" s="94">
+      <c r="G31" s="48">
         <v>3</v>
       </c>
-      <c r="H31" s="94">
+      <c r="H31" s="48">
         <v>6.24</v>
       </c>
       <c r="I31" s="52">
@@ -15909,16 +15915,16 @@
       <c r="D32" s="10">
         <v>1000</v>
       </c>
-      <c r="E32" s="94">
+      <c r="E32" s="48">
         <v>3.1</v>
       </c>
-      <c r="F32" s="94">
+      <c r="F32" s="48">
         <v>2.8</v>
       </c>
-      <c r="G32" s="94">
+      <c r="G32" s="48">
         <v>3</v>
       </c>
-      <c r="H32" s="94">
+      <c r="H32" s="48">
         <v>6.28</v>
       </c>
       <c r="I32" s="52">
@@ -15934,16 +15940,16 @@
       <c r="D33" s="10">
         <v>2000</v>
       </c>
-      <c r="E33" s="94">
+      <c r="E33" s="48">
         <v>3.1</v>
       </c>
-      <c r="F33" s="94">
+      <c r="F33" s="48">
         <v>2.7</v>
       </c>
-      <c r="G33" s="94">
+      <c r="G33" s="48">
         <v>3</v>
       </c>
-      <c r="H33" s="94">
+      <c r="H33" s="48">
         <v>6.24</v>
       </c>
       <c r="I33" s="52">
@@ -15955,16 +15961,16 @@
       <c r="D34" s="10">
         <v>5000</v>
       </c>
-      <c r="E34" s="94">
+      <c r="E34" s="48">
         <v>3</v>
       </c>
-      <c r="F34" s="94">
+      <c r="F34" s="48">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G34" s="94">
+      <c r="G34" s="48">
         <v>3</v>
       </c>
-      <c r="H34" s="94">
+      <c r="H34" s="48">
         <v>6.24</v>
       </c>
       <c r="I34" s="52">
@@ -15976,16 +15982,16 @@
       <c r="D35" s="10">
         <v>10000</v>
       </c>
-      <c r="E35" s="94">
+      <c r="E35" s="48">
         <v>2.9</v>
       </c>
-      <c r="F35" s="94">
+      <c r="F35" s="48">
         <v>1.48</v>
       </c>
-      <c r="G35" s="94">
+      <c r="G35" s="48">
         <v>3</v>
       </c>
-      <c r="H35" s="94">
+      <c r="H35" s="48">
         <v>6.24</v>
       </c>
       <c r="I35" s="52">
@@ -15997,16 +16003,16 @@
       <c r="D36" s="10">
         <v>20000</v>
       </c>
-      <c r="E36" s="94">
+      <c r="E36" s="48">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F36" s="94">
+      <c r="F36" s="48">
         <v>0.8</v>
       </c>
-      <c r="G36" s="94">
+      <c r="G36" s="48">
         <v>3</v>
       </c>
-      <c r="H36" s="94">
+      <c r="H36" s="48">
         <v>6.24</v>
       </c>
       <c r="I36" s="52">
@@ -16047,12 +16053,12 @@
       <c r="I41" s="64"/>
     </row>
     <row r="42" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="73"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="75"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="73"/>
     </row>
     <row r="43" spans="4:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D43" s="51" t="s">
@@ -16078,16 +16084,16 @@
       <c r="D44" s="10">
         <v>50</v>
       </c>
-      <c r="E44" s="48">
+      <c r="E44" s="94">
         <v>3</v>
       </c>
-      <c r="F44" s="48">
+      <c r="F44" s="94">
         <v>3</v>
       </c>
-      <c r="G44" s="48">
+      <c r="G44" s="94">
         <v>3</v>
       </c>
-      <c r="H44" s="48">
+      <c r="H44" s="94">
         <v>10.64</v>
       </c>
       <c r="I44" s="52">
@@ -16099,16 +16105,16 @@
       <c r="D45" s="10">
         <v>100</v>
       </c>
-      <c r="E45" s="48">
+      <c r="E45" s="94">
         <v>2.95</v>
       </c>
-      <c r="F45" s="48">
+      <c r="F45" s="94">
         <v>3</v>
       </c>
-      <c r="G45" s="48">
+      <c r="G45" s="94">
         <v>3</v>
       </c>
-      <c r="H45" s="48">
+      <c r="H45" s="94">
         <v>10.64</v>
       </c>
       <c r="I45" s="52">
@@ -16120,16 +16126,16 @@
       <c r="D46" s="10">
         <v>200</v>
       </c>
-      <c r="E46" s="48">
+      <c r="E46" s="94">
         <v>2.9</v>
       </c>
-      <c r="F46" s="48">
+      <c r="F46" s="94">
         <v>3</v>
       </c>
-      <c r="G46" s="48">
+      <c r="G46" s="94">
         <v>3</v>
       </c>
-      <c r="H46" s="48">
+      <c r="H46" s="94">
         <v>10.72</v>
       </c>
       <c r="I46" s="52">
@@ -16141,16 +16147,16 @@
       <c r="D47" s="10">
         <v>500</v>
       </c>
-      <c r="E47" s="48">
+      <c r="E47" s="94">
         <v>2.9</v>
       </c>
-      <c r="F47" s="48">
+      <c r="F47" s="94">
         <v>3</v>
       </c>
-      <c r="G47" s="48">
+      <c r="G47" s="94">
         <v>3</v>
       </c>
-      <c r="H47" s="48">
+      <c r="H47" s="94">
         <v>10.72</v>
       </c>
       <c r="I47" s="52">
@@ -16162,16 +16168,16 @@
       <c r="D48" s="10">
         <v>1000</v>
       </c>
-      <c r="E48" s="48">
+      <c r="E48" s="94">
         <v>2.95</v>
       </c>
-      <c r="F48" s="48">
+      <c r="F48" s="94">
         <v>3</v>
       </c>
-      <c r="G48" s="48">
+      <c r="G48" s="94">
         <v>3</v>
       </c>
-      <c r="H48" s="48">
+      <c r="H48" s="94">
         <v>10.72</v>
       </c>
       <c r="I48" s="52">
@@ -16183,16 +16189,16 @@
       <c r="D49" s="10">
         <v>2000</v>
       </c>
-      <c r="E49" s="48">
+      <c r="E49" s="94">
         <v>2.95</v>
       </c>
-      <c r="F49" s="48">
+      <c r="F49" s="94">
         <v>2.9</v>
       </c>
-      <c r="G49" s="48">
+      <c r="G49" s="94">
         <v>3</v>
       </c>
-      <c r="H49" s="48">
+      <c r="H49" s="94">
         <v>10.72</v>
       </c>
       <c r="I49" s="52">
@@ -16204,16 +16210,16 @@
       <c r="D50" s="10">
         <v>5000</v>
       </c>
-      <c r="E50" s="48">
+      <c r="E50" s="94">
         <v>2.9</v>
       </c>
-      <c r="F50" s="48">
+      <c r="F50" s="94">
         <v>2.4</v>
       </c>
-      <c r="G50" s="48">
+      <c r="G50" s="94">
         <v>3</v>
       </c>
-      <c r="H50" s="48">
+      <c r="H50" s="94">
         <v>10.72</v>
       </c>
       <c r="I50" s="52">
@@ -16225,16 +16231,16 @@
       <c r="D51" s="10">
         <v>10000</v>
       </c>
-      <c r="E51" s="48">
+      <c r="E51" s="94">
         <v>2.9</v>
       </c>
-      <c r="F51" s="48">
+      <c r="F51" s="94">
         <v>1.6</v>
       </c>
-      <c r="G51" s="48">
+      <c r="G51" s="94">
         <v>3</v>
       </c>
-      <c r="H51" s="48">
+      <c r="H51" s="94">
         <v>10.72</v>
       </c>
       <c r="I51" s="52">
@@ -16246,16 +16252,16 @@
       <c r="D52" s="10">
         <v>20000</v>
       </c>
-      <c r="E52" s="48">
+      <c r="E52" s="94">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F52" s="48">
+      <c r="F52" s="94">
         <v>0.8</v>
       </c>
-      <c r="G52" s="48">
+      <c r="G52" s="94">
         <v>3</v>
       </c>
-      <c r="H52" s="48">
+      <c r="H52" s="94">
         <v>10.72</v>
       </c>
       <c r="I52" s="52">
@@ -16279,7 +16285,7 @@
       <c r="H53" s="49">
         <v>10.72</v>
       </c>
-      <c r="I53" s="52">
+      <c r="I53" s="53">
         <f t="shared" si="2"/>
         <v>3.0945974428563945</v>
       </c>
